--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Al Hilal</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
       <c r="J21" t="n">
-        <v>12.64</v>
+        <v>1.16</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>18.25</v>
+        <v>1.11</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:40</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>6.75</v>
+        <v>7.91</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>9.07</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>16.84</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.14</v>
+        <v>29.41</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.16</v>
+        <v>13.51</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.11</v>
+        <v>12.1</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:40</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>7.91</v>
+        <v>6.52</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>9.279999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>16.84</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>29.41</v>
+        <v>1.22</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:07</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>13.51</v>
+        <v>12.64</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>12.1</v>
+        <v>18.25</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6.52</v>
+        <v>6.75</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,11 +2544,11 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>6.94</v>
+        <v>9.07</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R23" t="n">
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:07</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.82</v>
+        <v>4.32</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.37</v>
+        <v>3.95</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.97</v>
+        <v>6.62</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.15</v>
+        <v>4.67</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.5</v>
+        <v>5.88</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.72</v>
+        <v>4.83</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.32</v>
+        <v>4.63</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.95</v>
+        <v>4.55</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.62</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.67</v>
+        <v>1.61</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:52</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
       <c r="J28" t="n">
-        <v>5.88</v>
+        <v>1.41</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4.83</v>
+        <v>1.6</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.63</v>
+        <v>4.82</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.55</v>
+        <v>4.37</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>5.97</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.61</v>
+        <v>5.15</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:52</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.18</v>
+        <v>2.19</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.21</v>
+        <v>2.28</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:58</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>7.07</v>
+        <v>3.63</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>7.06</v>
+        <v>3.63</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>12.26</v>
+        <v>3.1</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>11.29</v>
+        <v>3.03</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.19</v>
+        <v>1.18</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.28</v>
+        <v>1.21</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:58</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.63</v>
+        <v>7.07</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.63</v>
+        <v>7.06</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.1</v>
+        <v>12.26</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.03</v>
+        <v>11.29</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:42</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>6.07</v>
+        <v>5.14</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>8.74</v>
+        <v>5.69</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>9.289999999999999</v>
+        <v>6.68</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>15.83</v>
+        <v>7.34</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.39</v>
+        <v>2.13</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>2.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:34</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.14</v>
+        <v>3.54</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.69</v>
+        <v>3.67</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.68</v>
+        <v>3.28</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>7.34</v>
+        <v>3.5</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.13</v>
+        <v>1.26</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>1.14</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:34</t>
+          <t>29/08/2023 19:42</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.54</v>
+        <v>6.07</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.67</v>
+        <v>8.74</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.28</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.5</v>
+        <v>15.83</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
         </is>
       </c>
     </row>
@@ -3885,34 +3885,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3920,36 +3920,36 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.24</v>
+        <v>3.37</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.66</v>
+        <v>4.13</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
         </is>
       </c>
     </row>
@@ -3977,34 +3977,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -4012,36 +4012,36 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.13</v>
+        <v>3.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.94</v>
+        <v>3.47</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.51</v>
+        <v>2.76</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.47</v>
+        <v>3.94</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.76</v>
+        <v>2.51</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.44</v>
+        <v>11.14</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.94</v>
+        <v>17.04</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.85</v>
+        <v>6.35</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.76</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>7</v>
+        <v>1.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.78</v>
+        <v>1.14</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 18:32</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>5</v>
-      </c>
       <c r="J43" t="n">
-        <v>11.14</v>
+        <v>5.41</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>17.04</v>
+        <v>6.86</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>6.35</v>
+        <v>4.35</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>8.779999999999999</v>
+        <v>5.34</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 18:32</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>5.41</v>
+        <v>1.83</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6.86</v>
+        <v>1.67</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.35</v>
+        <v>3.94</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>5.34</v>
+        <v>3.84</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.6</v>
+        <v>4.19</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.39</v>
+        <v>5.32</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
         </is>
       </c>
     </row>
@@ -4529,30 +4529,30 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>3</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Damac</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,15 +4560,15 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.94</v>
+        <v>4.85</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.84</v>
+        <v>3.76</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,15 +4576,15 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.19</v>
+        <v>7</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.32</v>
+        <v>3.78</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>9.01</v>
+        <v>2.83</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>11.59</v>
+        <v>2.11</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>6.5</v>
+        <v>3.58</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>7.18</v>
+        <v>3.49</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.24</v>
+        <v>2.37</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.2</v>
+        <v>3.51</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-nassr/Sd9ytnot/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-taee/dx1hx4p5/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.83</v>
+        <v>9.01</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.11</v>
+        <v>11.59</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.58</v>
+        <v>6.5</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.49</v>
+        <v>7.18</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.37</v>
+        <v>1.24</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.51</v>
+        <v>1.2</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-taee/dx1hx4p5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-nassr/Sd9ytnot/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.5</v>
+        <v>12.3</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.47</v>
+        <v>19.35</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>21/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>19/09/2023 19:37</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>21/09/2023 16:56</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>19/09/2023 19:36</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>21/09/2023 16:56</t>
-        </is>
-      </c>
       <c r="R56" t="n">
-        <v>5.75</v>
+        <v>1.14</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>6.56</v>
+        <v>1.13</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:47</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.12</v>
+        <v>4.15</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.74</v>
+        <v>4.55</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.95</v>
+        <v>5.75</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.57</v>
+        <v>6.56</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>12.3</v>
+        <v>1.57</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>19.35</v>
+        <v>2.01</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:59</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>8.27</v>
+        <v>4.12</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>8.67</v>
+        <v>3.74</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.14</v>
+        <v>4.95</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.13</v>
+        <v>3.57</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:47</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:54</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>6.23</v>
+        <v>3.83</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.05</v>
+        <v>4.92</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>8.609999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.57</v>
+        <v>6.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:54</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.83</v>
+        <v>6.23</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.72</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.57</v>
+        <v>4.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
       <c r="J70" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 16:31</t>
+          <t>30/09/2023 16:44</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.65</v>
+        <v>4.27</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.81</v>
+        <v>3.54</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 16:31</t>
+          <t>30/09/2023 16:40</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.63</v>
+        <v>4.3</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.38</v>
+        <v>2.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 16:31</t>
+          <t>30/09/2023 16:44</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-akhdoud/pMX2lVfc/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-wehda/d2CnnuET/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30/09/2023 16:44</t>
+          <t>30/09/2023 16:31</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4.27</v>
+        <v>3.65</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.54</v>
+        <v>3.81</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>30/09/2023 16:40</t>
+          <t>30/09/2023 16:31</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.3</v>
+        <v>3.63</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.74</v>
+        <v>3.38</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30/09/2023 16:44</t>
+          <t>30/09/2023 16:31</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-wehda/d2CnnuET/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-akhdoud/pMX2lVfc/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,98 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-ettifaq-fc/pd27oTvG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45204.58333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>4</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>05/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>05/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>05/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hazem-rass/GrPvTKOl/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.16</v>
+        <v>13.51</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.11</v>
+        <v>12.1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:40</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>7.91</v>
+        <v>6.52</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>9.279999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>16.84</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>29.41</v>
+        <v>1.22</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:07</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>13.51</v>
+        <v>12.64</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>12.1</v>
+        <v>18.25</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>6.52</v>
+        <v>6.75</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,11 +2452,11 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>6.94</v>
+        <v>9.07</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R22" t="n">
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:07</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Al Hilal</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
       <c r="J23" t="n">
-        <v>12.64</v>
+        <v>1.16</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>18.25</v>
+        <v>1.11</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:40</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6.75</v>
+        <v>7.91</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>9.07</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>16.84</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.14</v>
+        <v>29.41</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.32</v>
+        <v>4.82</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.95</v>
+        <v>4.37</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>6.62</v>
+        <v>5.97</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.67</v>
+        <v>5.15</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>5.88</v>
+        <v>1.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4.83</v>
+        <v>1.72</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.63</v>
+        <v>4.32</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.55</v>
+        <v>3.95</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>6.62</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.61</v>
+        <v>4.67</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:52</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.41</v>
+        <v>5.88</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.6</v>
+        <v>4.83</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.82</v>
+        <v>4.63</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.97</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.15</v>
+        <v>1.61</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>5.14</v>
+        <v>6.07</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.69</v>
+        <v>8.74</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>6.68</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>7.34</v>
+        <v>15.83</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:42</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>6.07</v>
+        <v>5.14</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>8.74</v>
+        <v>5.69</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>9.289999999999999</v>
+        <v>6.68</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>15.83</v>
+        <v>7.34</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
         </is>
       </c>
     </row>
@@ -3885,34 +3885,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3920,36 +3920,36 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.13</v>
+        <v>3.66</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
         </is>
       </c>
     </row>
@@ -3977,34 +3977,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -4012,36 +4012,36 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.24</v>
+        <v>3.37</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.66</v>
+        <v>4.13</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.47</v>
+        <v>3.94</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.76</v>
+        <v>2.51</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.94</v>
+        <v>3.47</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.51</v>
+        <v>2.76</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
       <c r="J42" t="n">
-        <v>11.14</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>17.04</v>
+        <v>1.67</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>6.35</v>
+        <v>3.94</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>8.779999999999999</v>
+        <v>3.84</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.26</v>
+        <v>4.19</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.14</v>
+        <v>5.32</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 18:32</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>5.41</v>
+        <v>1.83</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6.86</v>
+        <v>2.37</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.35</v>
+        <v>3.94</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>5.34</v>
+        <v>3.48</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.6</v>
+        <v>4.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.83</v>
+        <v>11.14</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.67</v>
+        <v>17.04</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.94</v>
+        <v>6.35</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.84</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.19</v>
+        <v>1.26</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.32</v>
+        <v>1.14</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 18:32</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.44</v>
+        <v>5.41</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.94</v>
+        <v>6.86</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.85</v>
+        <v>4.35</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.76</v>
+        <v>5.34</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.78</v>
+        <v>1.39</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.37</v>
+        <v>1.94</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.94</v>
+        <v>4.85</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.48</v>
+        <v>3.76</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.19</v>
+        <v>7</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.98</v>
+        <v>3.78</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.47</v>
+        <v>2.01</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>6.56</v>
+        <v>3.57</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.12</v>
+        <v>4.15</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.74</v>
+        <v>4.55</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.95</v>
+        <v>5.75</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.57</v>
+        <v>6.56</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.83</v>
+        <v>6.23</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.72</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.57</v>
+        <v>4.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:54</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>6.23</v>
+        <v>3.83</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.05</v>
+        <v>4.92</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>8.609999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.57</v>
+        <v>6.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 16:44</t>
+          <t>30/09/2023 16:31</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.27</v>
+        <v>3.65</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.54</v>
+        <v>3.81</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 16:40</t>
+          <t>30/09/2023 16:31</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>4.3</v>
+        <v>3.63</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.74</v>
+        <v>3.38</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 16:44</t>
+          <t>30/09/2023 16:31</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-wehda/d2CnnuET/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-akhdoud/pMX2lVfc/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>5</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
       <c r="J71" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30/09/2023 16:31</t>
+          <t>30/09/2023 16:44</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.65</v>
+        <v>4.27</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.81</v>
+        <v>3.54</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>30/09/2023 16:31</t>
+          <t>30/09/2023 16:40</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.63</v>
+        <v>4.3</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.38</v>
+        <v>2.74</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30/09/2023 16:31</t>
+          <t>30/09/2023 16:44</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-akhdoud/pMX2lVfc/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-wehda/d2CnnuET/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,190 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hazem-rass/GrPvTKOl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45204.70833333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:02</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:02</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:02</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-shabab/CAImRbg1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45204.70833333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>30/09/2023 02:46</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>30/09/2023 02:46</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>30/09/2023 02:46</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-taee/0WbrmtGK/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7449,6 +7449,98 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45204.83333333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>05/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>05/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>05/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-fateh/UokEsKwr/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>4.56</v>
+        <v>5.36</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>15.99</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.11</v>
+        <v>4.35</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>8.289999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:09</t>
+          <t>14/08/2023 16:55</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>5.36</v>
+        <v>4.56</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>15.99</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.35</v>
+        <v>4.11</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:55</t>
+          <t>14/08/2023 16:09</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
       <c r="J21" t="n">
-        <v>13.51</v>
+        <v>1.16</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>12.1</v>
+        <v>1.11</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:40</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>6.52</v>
+        <v>7.91</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>6.94</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>16.84</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.22</v>
+        <v>29.41</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:07</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>12.64</v>
+        <v>13.51</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>18.25</v>
+        <v>12.1</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>6.75</v>
+        <v>6.52</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,11 +2452,11 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>9.07</v>
+        <v>6.94</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R22" t="n">
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:07</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.16</v>
+        <v>12.64</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.11</v>
+        <v>18.25</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:40</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>7.91</v>
+        <v>6.75</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>9.279999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>16.84</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>29.41</v>
+        <v>1.14</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:42</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>6.07</v>
+        <v>5.14</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>8.74</v>
+        <v>5.69</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>9.289999999999999</v>
+        <v>6.68</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>15.83</v>
+        <v>7.34</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.13</v>
+        <v>1.26</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.05</v>
+        <v>1.14</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:34</t>
+          <t>29/08/2023 19:42</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.54</v>
+        <v>6.07</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.67</v>
+        <v>8.74</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.28</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.5</v>
+        <v>15.83</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.39</v>
+        <v>2.13</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.35</v>
+        <v>2.05</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:34</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>5.14</v>
+        <v>3.54</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>5.69</v>
+        <v>3.67</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>6.68</v>
+        <v>3.28</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>7.34</v>
+        <v>3.5</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
         </is>
       </c>
     </row>
@@ -3885,34 +3885,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3920,36 +3920,36 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.24</v>
+        <v>3.37</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.66</v>
+        <v>4.13</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
         </is>
       </c>
     </row>
@@ -3977,34 +3977,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -4012,36 +4012,36 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.13</v>
+        <v>3.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.94</v>
+        <v>3.47</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.51</v>
+        <v>2.76</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.47</v>
+        <v>3.94</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.76</v>
+        <v>2.51</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.83</v>
+        <v>11.14</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.67</v>
+        <v>17.04</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.94</v>
+        <v>6.35</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.84</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.19</v>
+        <v>1.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>5.32</v>
+        <v>1.14</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 18:32</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.83</v>
+        <v>5.41</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.37</v>
+        <v>6.86</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.94</v>
+        <v>4.35</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.48</v>
+        <v>5.34</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.19</v>
+        <v>1.6</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.98</v>
+        <v>1.39</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
       <c r="J44" t="n">
-        <v>11.14</v>
+        <v>1.83</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>17.04</v>
+        <v>1.67</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>6.35</v>
+        <v>3.94</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>8.779999999999999</v>
+        <v>3.84</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.26</v>
+        <v>4.19</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.14</v>
+        <v>5.32</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 18:32</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>5.41</v>
+        <v>1.44</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6.86</v>
+        <v>1.94</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.35</v>
+        <v>4.85</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>5.34</v>
+        <v>3.76</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.39</v>
+        <v>3.78</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.94</v>
+        <v>2.37</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.85</v>
+        <v>3.94</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7</v>
+        <v>4.19</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.78</v>
+        <v>2.98</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.12</v>
+        <v>4.15</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.74</v>
+        <v>4.55</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.95</v>
+        <v>5.75</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.57</v>
+        <v>6.56</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.47</v>
+        <v>2.01</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>6.56</v>
+        <v>3.57</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:54</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>6.23</v>
+        <v>3.83</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.05</v>
+        <v>4.92</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>8.609999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.57</v>
+        <v>6.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:54</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.83</v>
+        <v>6.23</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.72</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.57</v>
+        <v>4.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
         </is>
       </c>
     </row>
@@ -7538,6 +7538,190 @@
       <c r="V77" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-fateh/UokEsKwr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45205.70833333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:02</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:02</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:02</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-abha/vHAZl2o8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45205.83333333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:58</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-ahli-sc/I79wlM0E/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>5.36</v>
+        <v>4.56</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>15.99</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.35</v>
+        <v>4.11</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:55</t>
+          <t>14/08/2023 16:09</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>4.56</v>
+        <v>5.36</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>15.99</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.11</v>
+        <v>4.35</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>8.289999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:09</t>
+          <t>14/08/2023 16:55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:46</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.11</v>
+        <v>6.31</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.82</v>
+        <v>6.77</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 20:00</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>11.73</v>
+        <v>12.27</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>11.15</v>
+        <v>15.94</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 20:00</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-taee/QeBGJbY8/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-feiha/n5CCKvJ2/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:46</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.31</v>
+        <v>6.11</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.77</v>
+        <v>6.82</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 20:00</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>12.27</v>
+        <v>11.73</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>15.94</v>
+        <v>11.15</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 20:00</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-feiha/n5CCKvJ2/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-taee/QeBGJbY8/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.16</v>
+        <v>13.51</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.11</v>
+        <v>12.1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:40</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>7.91</v>
+        <v>6.52</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>9.279999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>16.84</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>29.41</v>
+        <v>1.22</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:07</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>13.51</v>
+        <v>12.64</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>12.1</v>
+        <v>18.25</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>6.52</v>
+        <v>6.75</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,11 +2452,11 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>6.94</v>
+        <v>9.07</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R22" t="n">
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:07</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Al Hilal</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
       <c r="J23" t="n">
-        <v>12.64</v>
+        <v>1.16</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>18.25</v>
+        <v>1.11</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:40</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6.75</v>
+        <v>7.91</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>9.07</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>16.84</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.14</v>
+        <v>29.41</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.74</v>
+        <v>3.21</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.94</v>
+        <v>3.85</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>29/08/2023 16:52</t>
+          <t>29/08/2023 16:53</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.62</v>
+        <v>3.95</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.52</v>
+        <v>2.21</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.34</v>
+        <v>1.87</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>29/08/2023 16:52</t>
+          <t>29/08/2023 16:56</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-fateh/d2pqBRo6/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-taawon/2uouC7Wa/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.21</v>
+        <v>2.74</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.85</v>
+        <v>2.94</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>29/08/2023 16:53</t>
+          <t>29/08/2023 16:52</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.95</v>
+        <v>3.62</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.21</v>
+        <v>2.52</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>29/08/2023 16:56</t>
+          <t>29/08/2023 16:52</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-taawon/2uouC7Wa/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-fateh/d2pqBRo6/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>5.14</v>
+        <v>6.07</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.69</v>
+        <v>8.74</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>6.68</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>7.34</v>
+        <v>15.83</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.26</v>
+        <v>2.13</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.14</v>
+        <v>2.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:42</t>
+          <t>29/08/2023 19:34</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>6.07</v>
+        <v>3.54</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>8.74</v>
+        <v>3.67</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>9.289999999999999</v>
+        <v>3.28</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>15.83</v>
+        <v>3.5</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.13</v>
+        <v>1.39</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>1.35</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:34</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.54</v>
+        <v>5.14</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.67</v>
+        <v>5.69</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.28</v>
+        <v>6.68</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.5</v>
+        <v>7.34</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
         </is>
       </c>
     </row>
@@ -3885,34 +3885,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3920,36 +3920,36 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.13</v>
+        <v>3.66</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
         </is>
       </c>
     </row>
@@ -3977,34 +3977,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -4012,36 +4012,36 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.24</v>
+        <v>3.37</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.66</v>
+        <v>4.13</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.47</v>
+        <v>3.94</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.76</v>
+        <v>2.51</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.94</v>
+        <v>3.47</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.51</v>
+        <v>2.76</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
       <c r="J42" t="n">
-        <v>11.14</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>17.04</v>
+        <v>1.67</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>6.35</v>
+        <v>3.94</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>8.779999999999999</v>
+        <v>3.84</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.26</v>
+        <v>4.19</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.14</v>
+        <v>5.32</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 18:32</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>5.41</v>
+        <v>1.83</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6.86</v>
+        <v>2.37</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.35</v>
+        <v>3.94</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>5.34</v>
+        <v>3.48</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.6</v>
+        <v>4.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.83</v>
+        <v>11.14</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.67</v>
+        <v>17.04</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.94</v>
+        <v>6.35</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.84</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.19</v>
+        <v>1.26</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.32</v>
+        <v>1.14</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 18:32</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.44</v>
+        <v>5.41</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.94</v>
+        <v>6.86</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.85</v>
+        <v>4.35</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.76</v>
+        <v>5.34</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.78</v>
+        <v>1.39</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.37</v>
+        <v>1.94</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.94</v>
+        <v>4.85</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.48</v>
+        <v>3.76</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.19</v>
+        <v>7</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.98</v>
+        <v>3.78</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.47</v>
+        <v>2.01</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>6.56</v>
+        <v>3.57</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.12</v>
+        <v>4.15</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.74</v>
+        <v>4.55</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.95</v>
+        <v>5.75</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.57</v>
+        <v>6.56</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.83</v>
+        <v>6.23</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.72</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.57</v>
+        <v>4.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:54</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>6.23</v>
+        <v>3.83</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.05</v>
+        <v>4.92</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>8.609999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.57</v>
+        <v>6.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,282 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-ahli-sc/I79wlM0E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:02</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:19</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:02</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:19</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:02</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:18</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hilal/UoTrSvve/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45206.83333333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:53</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45206.83333333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:53</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:53</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:53</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>12.64</v>
+        <v>1.56</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>18.25</v>
+        <v>1.85</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>6.75</v>
+        <v>4.25</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>9.07</v>
+        <v>3.7</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>4.92</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.14</v>
+        <v>4.2</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.56</v>
+        <v>12.64</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.85</v>
+        <v>18.25</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.25</v>
+        <v>6.75</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.7</v>
+        <v>9.07</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.92</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.2</v>
+        <v>1.14</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -3885,34 +3885,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3920,36 +3920,36 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.24</v>
+        <v>3.37</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.66</v>
+        <v>4.13</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
         </is>
       </c>
     </row>
@@ -3977,34 +3977,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -4012,36 +4012,36 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.13</v>
+        <v>3.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>3</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Damac</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.94</v>
+        <v>4.85</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.84</v>
+        <v>3.76</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,15 +4300,15 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.19</v>
+        <v>7</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>5.32</v>
+        <v>3.78</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
         </is>
       </c>
     </row>
@@ -4345,15 +4345,15 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -4368,11 +4368,11 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.37</v>
+        <v>1.67</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -4384,11 +4384,11 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.48</v>
+        <v>3.84</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R43" t="n">
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.98</v>
+        <v>5.32</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
       <c r="J44" t="n">
-        <v>11.14</v>
+        <v>1.83</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>17.04</v>
+        <v>2.37</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>6.35</v>
+        <v>3.94</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>8.779999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.26</v>
+        <v>4.19</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.14</v>
+        <v>2.98</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 18:32</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>5</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Al Ahli SC</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>5.41</v>
+        <v>11.14</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6.86</v>
+        <v>17.04</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.35</v>
+        <v>6.35</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>5.34</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.6</v>
+        <v>1.26</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 18:32</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.44</v>
+        <v>5.41</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.94</v>
+        <v>6.86</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.85</v>
+        <v>4.35</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.76</v>
+        <v>5.34</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.78</v>
+        <v>1.39</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.83</v>
+        <v>9.01</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.11</v>
+        <v>11.59</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.58</v>
+        <v>6.5</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.49</v>
+        <v>7.18</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.37</v>
+        <v>1.24</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.51</v>
+        <v>1.2</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-taee/dx1hx4p5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-nassr/Sd9ytnot/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>9.01</v>
+        <v>2.83</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>11.59</v>
+        <v>2.11</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>6.5</v>
+        <v>3.58</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>7.18</v>
+        <v>3.49</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.24</v>
+        <v>2.37</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.2</v>
+        <v>3.51</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-nassr/Sd9ytnot/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-taee/dx1hx4p5/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,374 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-feiha/EZOH1uVD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>15/10/2023 12:47</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>15/10/2023 12:47</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>15/10/2023 12:47</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-ittihad/44sRvIN0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45219.83333333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>15/10/2023 12:47</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:50</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>15/10/2023 12:47</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:50</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>15/10/2023 12:47</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:50</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45219.83333333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>15/10/2023 12:47</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:38</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>15/10/2023 12:47</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:53</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>15/10/2023 12:47</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:53</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
       <c r="J30" t="n">
-        <v>12.33</v>
+        <v>2.19</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>11.76</v>
+        <v>2.28</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>6.66</v>
+        <v>3.63</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>6.19</v>
+        <v>3.63</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.24</v>
+        <v>3.03</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:43</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.19</v>
+        <v>1.18</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.28</v>
+        <v>1.21</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:58</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.63</v>
+        <v>7.07</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.63</v>
+        <v>7.06</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.1</v>
+        <v>12.26</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.03</v>
+        <v>11.29</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>1.18</v>
+        <v>12.33</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.21</v>
+        <v>11.76</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:58</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>7.07</v>
+        <v>6.66</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>7.06</v>
+        <v>6.19</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>12.26</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>11.29</v>
+        <v>1.24</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:43</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
         </is>
       </c>
     </row>
@@ -8366,6 +8366,374 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45220.70833333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>4</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:02</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:02</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:02</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-raed/hQNL0apK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45220.70833333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:02</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:02</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:02</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-damac/QDrNub8f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45220.83333333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>14/10/2023 19:16</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:18</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>14/10/2023 19:16</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:37</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>14/10/2023 19:16</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:37</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-wehda/CUpZxdhD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45220.83333333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>14/10/2023 19:16</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>14/10/2023 19:16</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>14/10/2023 19:16</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taee/2a9iew8s/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8737,6 +8737,98 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45221.70833333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:16</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:16</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:16</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ettifaq-fc/8xlItvgl/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:46</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.31</v>
+        <v>6.11</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.77</v>
+        <v>6.82</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 20:00</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>12.27</v>
+        <v>11.73</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>15.94</v>
+        <v>11.15</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 20:00</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-feiha/n5CCKvJ2/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-taee/QeBGJbY8/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:46</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.11</v>
+        <v>6.31</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.82</v>
+        <v>6.77</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 20:00</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>11.73</v>
+        <v>12.27</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>11.15</v>
+        <v>15.94</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 20:00</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-taee/QeBGJbY8/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-feiha/n5CCKvJ2/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.56</v>
+        <v>12.64</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.85</v>
+        <v>18.25</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.25</v>
+        <v>6.75</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.7</v>
+        <v>9.07</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.92</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.2</v>
+        <v>1.14</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.16</v>
+        <v>1.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.11</v>
+        <v>1.85</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:40</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>7.91</v>
+        <v>4.25</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>9.279999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>16.84</v>
+        <v>4.92</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>29.41</v>
+        <v>4.2</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Al Hilal</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
       <c r="J24" t="n">
-        <v>12.64</v>
+        <v>1.16</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>18.25</v>
+        <v>1.11</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:40</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>6.75</v>
+        <v>7.91</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>9.07</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.21</v>
+        <v>16.84</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.14</v>
+        <v>29.41</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.41</v>
+        <v>5.88</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.6</v>
+        <v>4.83</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.82</v>
+        <v>4.63</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.97</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.15</v>
+        <v>1.61</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:52</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.32</v>
+        <v>4.82</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.95</v>
+        <v>4.37</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.62</v>
+        <v>5.97</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.67</v>
+        <v>5.15</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>5.88</v>
+        <v>1.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4.83</v>
+        <v>1.72</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.63</v>
+        <v>4.32</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.55</v>
+        <v>3.95</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>6.62</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.61</v>
+        <v>4.67</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:52</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>3</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Al Riyadh</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.19</v>
+        <v>12.33</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.28</v>
+        <v>11.76</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.63</v>
+        <v>6.66</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.63</v>
+        <v>6.19</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.03</v>
+        <v>1.24</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.18</v>
+        <v>2.19</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.21</v>
+        <v>2.28</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:58</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>7.07</v>
+        <v>3.63</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>7.06</v>
+        <v>3.63</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>12.26</v>
+        <v>3.1</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>11.29</v>
+        <v>3.03</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
       <c r="J32" t="n">
-        <v>12.33</v>
+        <v>1.18</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,48 +3356,48 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>11.76</v>
+        <v>1.21</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>28/08/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>27/08/2023 12:36</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>28/08/2023 19:59</t>
         </is>
       </c>
-      <c r="N32" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="R32" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>27/08/2023 12:36</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="Q32" t="inlineStr">
+      <c r="T32" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>28/08/2023 19:59</t>
         </is>
       </c>
-      <c r="R32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>27/08/2023 12:36</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>28/08/2023 19:43</t>
-        </is>
-      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.21</v>
+        <v>2.74</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3.85</v>
+        <v>2.94</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>29/08/2023 16:53</t>
+          <t>29/08/2023 16:52</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.95</v>
+        <v>3.62</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.21</v>
+        <v>2.52</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>29/08/2023 16:56</t>
+          <t>29/08/2023 16:52</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-taawon/2uouC7Wa/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-fateh/d2pqBRo6/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.74</v>
+        <v>3.21</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.94</v>
+        <v>3.85</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>29/08/2023 16:52</t>
+          <t>29/08/2023 16:53</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.62</v>
+        <v>3.95</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.52</v>
+        <v>2.21</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.34</v>
+        <v>1.87</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>29/08/2023 16:52</t>
+          <t>29/08/2023 16:56</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-fateh/d2pqBRo6/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-taawon/2uouC7Wa/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:42</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>6.07</v>
+        <v>5.14</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>8.74</v>
+        <v>5.69</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>9.289999999999999</v>
+        <v>6.68</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>15.83</v>
+        <v>7.34</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:42</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>5.14</v>
+        <v>6.07</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>5.69</v>
+        <v>8.74</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>6.68</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>7.34</v>
+        <v>15.83</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.94</v>
+        <v>2.37</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.85</v>
+        <v>3.94</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>7</v>
+        <v>4.19</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.78</v>
+        <v>2.98</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
         </is>
       </c>
     </row>
@@ -4345,30 +4345,30 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>3</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Damac</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,15 +4376,15 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.94</v>
+        <v>4.85</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.84</v>
+        <v>3.76</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,15 +4392,15 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.19</v>
+        <v>7</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.32</v>
+        <v>3.78</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.83</v>
+        <v>11.14</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.37</v>
+        <v>17.04</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.94</v>
+        <v>6.35</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.48</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.19</v>
+        <v>1.26</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.98</v>
+        <v>1.14</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 18:32</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>5</v>
-      </c>
       <c r="J45" t="n">
-        <v>11.14</v>
+        <v>5.41</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>17.04</v>
+        <v>6.86</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>6.35</v>
+        <v>4.35</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>8.779999999999999</v>
+        <v>5.34</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 18:32</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>5.41</v>
+        <v>1.83</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6.86</v>
+        <v>1.67</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.35</v>
+        <v>3.94</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>5.34</v>
+        <v>3.84</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.6</v>
+        <v>4.19</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.39</v>
+        <v>5.32</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>9.01</v>
+        <v>2.83</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>11.59</v>
+        <v>2.11</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>6.5</v>
+        <v>3.58</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>7.18</v>
+        <v>3.49</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.24</v>
+        <v>2.37</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.2</v>
+        <v>3.51</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-nassr/Sd9ytnot/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-taee/dx1hx4p5/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.83</v>
+        <v>9.01</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.11</v>
+        <v>11.59</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.58</v>
+        <v>6.5</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.49</v>
+        <v>7.18</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.37</v>
+        <v>1.24</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.51</v>
+        <v>1.2</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-taee/dx1hx4p5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-nassr/Sd9ytnot/</t>
         </is>
       </c>
     </row>
@@ -5541,46 +5541,46 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>12.3</v>
+        <v>1.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>19.35</v>
+        <v>1.47</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:59</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>8.27</v>
+        <v>4.15</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>8.67</v>
+        <v>4.55</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,24 +5588,24 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.14</v>
+        <v>5.75</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.13</v>
+        <v>6.56</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:47</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.57</v>
+        <v>12.3</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.01</v>
+        <v>19.35</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.12</v>
+        <v>8.27</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.74</v>
+        <v>8.67</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.95</v>
+        <v>1.14</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.57</v>
+        <v>1.13</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:47</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.47</v>
+        <v>2.01</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>6.56</v>
+        <v>3.57</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:54</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>6.23</v>
+        <v>3.83</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.05</v>
+        <v>4.92</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>8.609999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.57</v>
+        <v>6.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:54</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.83</v>
+        <v>6.23</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.72</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.57</v>
+        <v>4.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,63 +6193,63 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:01</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>22/09/2023 19:52</t>
+          <t>22/09/2023 19:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.8</v>
+        <v>3.96</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:01</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.11</v>
+        <v>4.3</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>22/09/2023 19:52</t>
+          <t>22/09/2023 19:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.87</v>
+        <v>3.79</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:01</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>22/09/2023 19:52</t>
+          <t>22/09/2023 19:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-abha/zmOwl1qH/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-ahli-sc/IBDrmLbN/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,63 +6285,63 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>19/09/2023 20:01</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>22/09/2023 19:58</t>
+          <t>22/09/2023 19:52</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.96</v>
+        <v>3.8</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>19/09/2023 20:01</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.3</v>
+        <v>4.11</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>22/09/2023 19:58</t>
+          <t>22/09/2023 19:52</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.79</v>
+        <v>3.87</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>19/09/2023 20:01</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>22/09/2023 19:58</t>
+          <t>22/09/2023 19:52</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-ahli-sc/IBDrmLbN/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-abha/zmOwl1qH/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,48 +7956,48 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>07/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
           <t>07/10/2023 19:53</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O82" t="inlineStr">
+      <c r="R82" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S82" t="inlineStr">
         <is>
           <t>30/09/2023 19:17</t>
         </is>
       </c>
-      <c r="P82" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>07/10/2023 19:53</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:17</t>
-        </is>
-      </c>
       <c r="T82" t="n">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 19:53</t>
+          <t>07/10/2023 19:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,282 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ettifaq-fc/8xlItvgl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45225.70833333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45225.70833333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:50</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>26/10/2023 17:00</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:50</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45225.83333333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>26/10/2023 19:47</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>26/10/2023 19:47</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>26/10/2023 19:47</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hazem-rass/pObdfcNm/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.35</v>
+        <v>2.97</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>4.57</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:53</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5.11</v>
+        <v>3.44</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>6.91</v>
+        <v>3.9</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:57</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>8.58</v>
+        <v>2.39</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>11.02</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:57</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-taawon/CYKMcHBk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-ettifaq-fc/bVGIbcdq/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.97</v>
+        <v>1.35</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.57</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:53</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.44</v>
+        <v>5.11</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.9</v>
+        <v>6.91</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:57</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.39</v>
+        <v>8.58</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>11.02</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:57</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-ettifaq-fc/bVGIbcdq/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-taawon/CYKMcHBk/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
       <c r="J26" t="n">
-        <v>5.88</v>
+        <v>1.41</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4.83</v>
+        <v>1.6</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.63</v>
+        <v>4.82</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.55</v>
+        <v>4.37</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.44</v>
+        <v>5.97</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.61</v>
+        <v>5.15</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:52</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.82</v>
+        <v>4.32</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.37</v>
+        <v>3.95</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5.97</v>
+        <v>6.62</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.15</v>
+        <v>4.67</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.5</v>
+        <v>5.88</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.72</v>
+        <v>4.83</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.32</v>
+        <v>4.63</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.95</v>
+        <v>4.55</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.62</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.67</v>
+        <v>1.61</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Al Fateh</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.32</v>
+        <v>1.08</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.03</v>
+        <v>1.03</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>15/09/2023 19:52</t>
+          <t>15/09/2023 19:02</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.72</v>
+        <v>12.79</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.68</v>
+        <v>22.77</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>15/09/2023 19:52</t>
+          <t>15/09/2023 19:55</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.14</v>
+        <v>19.66</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.26</v>
+        <v>46.57</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>15/09/2023 19:52</t>
+          <t>15/09/2023 19:58</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-fateh/rga0zrFH/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-riyadh/0A7qvQFh/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.08</v>
+        <v>3.32</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.03</v>
+        <v>3.03</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>15/09/2023 19:02</t>
+          <t>15/09/2023 19:52</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>12.79</v>
+        <v>3.72</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>22.77</v>
+        <v>3.68</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>15/09/2023 19:55</t>
+          <t>15/09/2023 19:52</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>19.66</v>
+        <v>2.14</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>46.57</v>
+        <v>2.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>15/09/2023 19:58</t>
+          <t>15/09/2023 19:52</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-riyadh/0A7qvQFh/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-fateh/rga0zrFH/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.83</v>
+        <v>9.01</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.11</v>
+        <v>11.59</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.58</v>
+        <v>6.5</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.49</v>
+        <v>7.18</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.37</v>
+        <v>1.24</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.51</v>
+        <v>1.2</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-taee/dx1hx4p5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-nassr/Sd9ytnot/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>9.01</v>
+        <v>2.83</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>11.59</v>
+        <v>2.11</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>6.5</v>
+        <v>3.58</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>7.18</v>
+        <v>3.49</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.24</v>
+        <v>2.37</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.2</v>
+        <v>3.51</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-nassr/Sd9ytnot/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-taee/dx1hx4p5/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.47</v>
+        <v>2.01</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>6.56</v>
+        <v>3.57</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>12.3</v>
+        <v>1.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>19.35</v>
+        <v>1.47</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:59</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>8.27</v>
+        <v>4.15</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>8.67</v>
+        <v>4.55</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>1.14</v>
+        <v>5.75</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.13</v>
+        <v>6.56</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:47</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.57</v>
+        <v>12.3</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.01</v>
+        <v>19.35</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.12</v>
+        <v>8.27</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.74</v>
+        <v>8.67</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.95</v>
+        <v>1.14</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.57</v>
+        <v>1.13</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:47</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,63 +6193,63 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>19/09/2023 20:01</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>22/09/2023 19:58</t>
+          <t>22/09/2023 19:52</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.96</v>
+        <v>3.8</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>19/09/2023 20:01</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.3</v>
+        <v>4.11</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>22/09/2023 19:58</t>
+          <t>22/09/2023 19:52</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.79</v>
+        <v>3.87</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>19/09/2023 20:01</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>22/09/2023 19:58</t>
+          <t>22/09/2023 19:52</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-ahli-sc/IBDrmLbN/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-abha/zmOwl1qH/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,63 +6285,63 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:01</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>22/09/2023 19:52</t>
+          <t>22/09/2023 19:58</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.8</v>
+        <v>3.96</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:01</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.11</v>
+        <v>4.3</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>22/09/2023 19:52</t>
+          <t>22/09/2023 19:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.87</v>
+        <v>3.79</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:01</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>22/09/2023 19:52</t>
+          <t>22/09/2023 19:58</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-abha/zmOwl1qH/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-ahli-sc/IBDrmLbN/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,48 +7864,48 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
+          <t>07/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
           <t>07/10/2023 19:53</t>
         </is>
       </c>
-      <c r="N81" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O81" t="inlineStr">
+      <c r="R81" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S81" t="inlineStr">
         <is>
           <t>30/09/2023 19:17</t>
         </is>
       </c>
-      <c r="P81" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>07/10/2023 19:53</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:17</t>
-        </is>
-      </c>
       <c r="T81" t="n">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 19:53</t>
+          <t>07/10/2023 19:56</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:38</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.56</v>
+        <v>11.38</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>5.34</v>
+        <v>11.29</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.75</v>
+        <v>21.56</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>6.72</v>
+        <v>19.58</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
       <c r="J86" t="n">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:38</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>11.38</v>
+        <v>4.56</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>11.29</v>
+        <v>5.34</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>21.56</v>
+        <v>4.75</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>19.58</v>
+        <v>6.72</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
         </is>
       </c>
     </row>
@@ -9102,6 +9102,558 @@
       <c r="V94" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hazem-rass/pObdfcNm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45226.70833333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45226.70833333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45226.83333333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>3</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>27/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>27/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>27/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ahli-sc/hl24hyh0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:48</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:48</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:48</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-shabab/tAraEIEJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-nassr/ve12DxUP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45227.83333333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ettifaq-fc/bR20gHxf/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
       <c r="J21" t="n">
-        <v>13.51</v>
+        <v>1.16</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>12.1</v>
+        <v>1.11</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:40</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>6.52</v>
+        <v>7.91</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>6.94</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>16.84</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.22</v>
+        <v>29.41</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:07</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>12.64</v>
+        <v>13.51</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>18.25</v>
+        <v>12.1</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>6.75</v>
+        <v>6.52</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,11 +2452,11 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>9.07</v>
+        <v>6.94</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R22" t="n">
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:07</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.56</v>
+        <v>12.64</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.85</v>
+        <v>18.25</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.25</v>
+        <v>6.75</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.7</v>
+        <v>9.07</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.92</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.2</v>
+        <v>1.14</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.16</v>
+        <v>1.56</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.11</v>
+        <v>1.85</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:40</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>7.91</v>
+        <v>4.25</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>9.279999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>16.84</v>
+        <v>4.92</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>29.41</v>
+        <v>4.2</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,22 +8033,22 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>3.22</v>
+        <v>4.56</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.86</v>
+        <v>4.61</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.32</v>
+        <v>4.09</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.49</v>
+        <v>4.24</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/10/2023 16:59</t>
+          <t>20/10/2023 16:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/10/2023 16:59</t>
+          <t>20/10/2023 16:51</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-feiha/EZOH1uVD/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-ittihad/44sRvIN0/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,22 +8125,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>4.56</v>
+        <v>3.22</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4.61</v>
+        <v>2.86</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,40 +8148,40 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.09</v>
+        <v>3.32</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.24</v>
+        <v>3.49</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/10/2023 16:58</t>
+          <t>20/10/2023 16:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.63</v>
+        <v>2.25</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.68</v>
+        <v>2.45</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>20/10/2023 16:51</t>
+          <t>20/10/2023 16:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-ittihad/44sRvIN0/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-feiha/EZOH1uVD/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>1</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:38</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>11.38</v>
+        <v>4.56</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>11.29</v>
+        <v>5.34</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>21.56</v>
+        <v>4.75</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>19.58</v>
+        <v>6.72</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:38</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.56</v>
+        <v>11.38</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>5.34</v>
+        <v>11.29</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.75</v>
+        <v>21.56</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>6.72</v>
+        <v>19.58</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>3.53</v>
+        <v>1.88</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.5</v>
+        <v>1.84</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:56</t>
+          <t>26/10/2023 17:00</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>3.92</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.04</v>
+        <v>3.99</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>2</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K93" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>24/10/2023 21:01</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>26/10/2023 16:50</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
-      <c r="P93" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>26/10/2023 17:00</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
       <c r="T93" t="n">
-        <v>3.99</v>
+        <v>2.04</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:50</t>
+          <t>26/10/2023 16:55</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,282 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ettifaq-fc/bR20gHxf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45233.66666666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-hilal/0YXc2CLO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45233.66666666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-feiha/SKZk4YjC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45233.79166666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:50</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-ittihad/2ZP0MF6t/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>13.51</v>
+        <v>12.64</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>12.1</v>
+        <v>18.25</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>6.52</v>
+        <v>6.75</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,11 +2452,11 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>6.94</v>
+        <v>9.07</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R22" t="n">
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:07</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>12.64</v>
+        <v>1.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>18.25</v>
+        <v>1.85</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6.75</v>
+        <v>4.25</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>9.07</v>
+        <v>3.7</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>4.92</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.14</v>
+        <v>4.2</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.56</v>
+        <v>13.51</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.85</v>
+        <v>12.1</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.25</v>
+        <v>6.52</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.7</v>
+        <v>6.94</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.92</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.2</v>
+        <v>1.22</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:07</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,22 +8033,22 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>4.56</v>
+        <v>3.22</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.61</v>
+        <v>2.86</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.09</v>
+        <v>3.32</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.24</v>
+        <v>3.49</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/10/2023 16:58</t>
+          <t>20/10/2023 16:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.63</v>
+        <v>2.25</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.68</v>
+        <v>2.45</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/10/2023 16:51</t>
+          <t>20/10/2023 16:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-ittihad/44sRvIN0/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-feiha/EZOH1uVD/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,22 +8125,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.22</v>
+        <v>4.56</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.86</v>
+        <v>4.61</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,40 +8148,40 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.32</v>
+        <v>4.09</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.49</v>
+        <v>4.24</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/10/2023 16:59</t>
+          <t>20/10/2023 16:58</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>20/10/2023 16:59</t>
+          <t>20/10/2023 16:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-feiha/EZOH1uVD/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-ittihad/44sRvIN0/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.39</v>
+        <v>1.17</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.36</v>
+        <v>1.16</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.51</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.47</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.73</v>
+        <v>13.61</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.18</v>
+        <v>14.15</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-raed/hQNL0apK/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-damac/QDrNub8f/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>1.17</v>
+        <v>2.39</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.16</v>
+        <v>3.36</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>8.119999999999999</v>
+        <v>3.51</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>8.359999999999999</v>
+        <v>3.47</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="R88" t="n">
-        <v>13.61</v>
+        <v>2.73</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>14.15</v>
+        <v>2.18</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-damac/QDrNub8f/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-raed/hQNL0apK/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
         <v>2</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K92" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>24/10/2023 21:01</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>26/10/2023 16:50</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>26/10/2023 17:00</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
       <c r="T92" t="n">
-        <v>3.99</v>
+        <v>2.04</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:50</t>
+          <t>26/10/2023 16:55</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3.53</v>
+        <v>1.88</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.5</v>
+        <v>1.84</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:56</t>
+          <t>26/10/2023 17:00</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>3.92</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.04</v>
+        <v>3.99</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>4.14</v>
+        <v>1.84</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.93</v>
+        <v>1.75</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.26</v>
+        <v>3.78</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.75</v>
+        <v>4.13</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.21</v>
+        <v>4.65</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 16:58</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.84</v>
+        <v>4.14</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,48 @@
         </is>
       </c>
       <c r="L96" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
         <v>1.75</v>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U96" t="inlineStr">
         <is>
           <t>27/10/2023 16:59</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="T96" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:58</t>
-        </is>
-      </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
         </is>
       </c>
     </row>
@@ -9930,6 +9930,282 @@
       <c r="V103" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-ittihad/2ZP0MF6t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>02/11/2023 09:19</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>02/11/2023 09:19</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>02/11/2023 09:19</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:35</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-akhdoud/0QwZQebP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45234.79166666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:55</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-raed/OSxZ7Gim/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45234.79166666666</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-khaleej/EHVo5Ey6/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V106"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.97</v>
+        <v>1.35</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.57</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:53</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.44</v>
+        <v>5.11</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.9</v>
+        <v>6.91</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:57</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.39</v>
+        <v>8.58</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>11.02</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:57</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-ettifaq-fc/bVGIbcdq/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-taawon/CYKMcHBk/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.35</v>
+        <v>2.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>4.57</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:53</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5.11</v>
+        <v>3.44</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>6.91</v>
+        <v>3.9</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:57</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>8.58</v>
+        <v>2.39</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>11.02</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:57</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-taawon/CYKMcHBk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-ettifaq-fc/bVGIbcdq/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.16</v>
+        <v>13.51</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.11</v>
+        <v>12.1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:40</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>7.91</v>
+        <v>6.52</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>9.279999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>16.84</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>29.41</v>
+        <v>1.22</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:07</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
       <c r="J24" t="n">
-        <v>13.51</v>
+        <v>1.16</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>12.1</v>
+        <v>1.11</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:40</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>6.52</v>
+        <v>7.91</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>6.94</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.21</v>
+        <v>16.84</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.22</v>
+        <v>29.41</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:07</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
       <c r="J30" t="n">
-        <v>12.33</v>
+        <v>1.18</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,48 +3172,48 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>11.76</v>
+        <v>1.21</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>28/08/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>27/08/2023 12:36</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>28/08/2023 19:59</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="R30" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>27/08/2023 12:36</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="Q30" t="inlineStr">
+      <c r="T30" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>28/08/2023 19:59</t>
         </is>
       </c>
-      <c r="R30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>27/08/2023 12:36</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>28/08/2023 19:43</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Al Riyadh</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.19</v>
+        <v>12.33</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.28</v>
+        <v>11.76</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.63</v>
+        <v>6.66</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.63</v>
+        <v>6.19</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.03</v>
+        <v>1.24</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.18</v>
+        <v>2.19</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.21</v>
+        <v>2.28</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:58</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>7.07</v>
+        <v>3.63</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>7.06</v>
+        <v>3.63</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>12.26</v>
+        <v>3.1</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>11.29</v>
+        <v>3.03</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>5.14</v>
+        <v>6.07</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.69</v>
+        <v>8.74</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>6.68</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>7.34</v>
+        <v>15.83</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.13</v>
+        <v>1.39</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.05</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:34</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.54</v>
+        <v>5.14</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.67</v>
+        <v>5.69</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.28</v>
+        <v>6.68</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.5</v>
+        <v>7.34</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.26</v>
+        <v>2.13</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.14</v>
+        <v>2.05</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:42</t>
+          <t>29/08/2023 19:34</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>6.07</v>
+        <v>3.54</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>8.74</v>
+        <v>3.67</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>9.289999999999999</v>
+        <v>3.28</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>15.83</v>
+        <v>3.5</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>1.08</v>
+        <v>3.32</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.03</v>
+        <v>3.03</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>15/09/2023 19:02</t>
+          <t>15/09/2023 19:52</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>12.79</v>
+        <v>3.72</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>22.77</v>
+        <v>3.68</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>15/09/2023 19:55</t>
+          <t>15/09/2023 19:52</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>19.66</v>
+        <v>2.14</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>46.57</v>
+        <v>2.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>15/09/2023 19:58</t>
+          <t>15/09/2023 19:52</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-riyadh/0A7qvQFh/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-fateh/rga0zrFH/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Al Fateh</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>3</v>
-      </c>
       <c r="J51" t="n">
-        <v>3.32</v>
+        <v>1.08</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.03</v>
+        <v>1.03</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>15/09/2023 19:52</t>
+          <t>15/09/2023 19:02</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.72</v>
+        <v>12.79</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.68</v>
+        <v>22.77</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>15/09/2023 19:52</t>
+          <t>15/09/2023 19:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.14</v>
+        <v>19.66</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.26</v>
+        <v>46.57</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>15/09/2023 19:52</t>
+          <t>15/09/2023 19:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-fateh/rga0zrFH/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-riyadh/0A7qvQFh/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>9.01</v>
+        <v>2.83</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>11.59</v>
+        <v>2.11</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>6.5</v>
+        <v>3.58</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>7.18</v>
+        <v>3.49</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.24</v>
+        <v>2.37</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.2</v>
+        <v>3.51</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-nassr/Sd9ytnot/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-taee/dx1hx4p5/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.83</v>
+        <v>9.01</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.11</v>
+        <v>11.59</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.58</v>
+        <v>6.5</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.49</v>
+        <v>7.18</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.37</v>
+        <v>1.24</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.51</v>
+        <v>1.2</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:58</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-taee/dx1hx4p5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-nassr/Sd9ytnot/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.12</v>
+        <v>4.15</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.74</v>
+        <v>4.55</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.95</v>
+        <v>5.75</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.57</v>
+        <v>6.56</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.47</v>
+        <v>2.01</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>6.56</v>
+        <v>3.57</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>1.17</v>
+        <v>2.39</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.16</v>
+        <v>3.36</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>8.119999999999999</v>
+        <v>3.51</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>8.359999999999999</v>
+        <v>3.47</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>13.61</v>
+        <v>2.73</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>14.15</v>
+        <v>2.18</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-damac/QDrNub8f/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-raed/hQNL0apK/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.39</v>
+        <v>1.17</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>3.36</v>
+        <v>1.16</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.51</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.47</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.73</v>
+        <v>13.61</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.18</v>
+        <v>14.15</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-raed/hQNL0apK/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-damac/QDrNub8f/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:18</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>6.35</v>
+        <v>4.49</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>5.04</v>
+        <v>4.52</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:37</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>9.09</v>
+        <v>6.2</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>7.62</v>
+        <v>5.78</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:37</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-wehda/CUpZxdhD/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taee/2a9iew8s/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:18</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.49</v>
+        <v>6.35</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.52</v>
+        <v>5.04</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:37</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>6.2</v>
+        <v>9.09</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.78</v>
+        <v>7.62</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:37</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taee/2a9iew8s/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-wehda/CUpZxdhD/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.84</v>
+        <v>4.14</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
         <v>1.75</v>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U95" t="inlineStr">
         <is>
           <t>27/10/2023 16:59</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:58</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>4.14</v>
+        <v>1.84</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.93</v>
+        <v>1.75</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.26</v>
+        <v>3.78</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.75</v>
+        <v>4.13</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.21</v>
+        <v>4.65</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 16:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
         </is>
       </c>
     </row>
@@ -10206,6 +10206,282 @@
       <c r="V106" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-khaleej/EHVo5Ey6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-wehda/MsZg3h6I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-damac/Whts6fMa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45235.79166666666</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-riyadh/h2sw7z7g/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.41</v>
+        <v>5.88</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.6</v>
+        <v>4.83</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.82</v>
+        <v>4.63</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.97</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.15</v>
+        <v>1.61</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:52</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.32</v>
+        <v>4.82</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.95</v>
+        <v>4.37</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.62</v>
+        <v>5.97</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.67</v>
+        <v>5.15</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>5.88</v>
+        <v>1.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4.83</v>
+        <v>1.72</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.63</v>
+        <v>4.32</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.55</v>
+        <v>3.95</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>6.62</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.61</v>
+        <v>4.67</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:52</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.18</v>
+        <v>2.19</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.21</v>
+        <v>2.28</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:58</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>7.07</v>
+        <v>3.63</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>7.06</v>
+        <v>3.63</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>12.26</v>
+        <v>3.1</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>11.29</v>
+        <v>3.03</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
       <c r="J31" t="n">
-        <v>12.33</v>
+        <v>1.18</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,48 +3264,48 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>11.76</v>
+        <v>1.21</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>28/08/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>27/08/2023 12:36</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>28/08/2023 19:59</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="R31" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="S31" t="inlineStr">
         <is>
           <t>27/08/2023 12:36</t>
         </is>
       </c>
-      <c r="P31" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="Q31" t="inlineStr">
+      <c r="T31" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>28/08/2023 19:59</t>
         </is>
       </c>
-      <c r="R31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>27/08/2023 12:36</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>28/08/2023 19:43</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>3</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Al Riyadh</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.19</v>
+        <v>12.33</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.28</v>
+        <v>11.76</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.63</v>
+        <v>6.66</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.63</v>
+        <v>6.19</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.03</v>
+        <v>1.24</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:43</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.5</v>
+        <v>12.3</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.47</v>
+        <v>19.35</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>21/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>19/09/2023 19:37</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>21/09/2023 16:56</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>19/09/2023 19:36</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>21/09/2023 16:56</t>
-        </is>
-      </c>
       <c r="R56" t="n">
-        <v>5.75</v>
+        <v>1.14</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>6.56</v>
+        <v>1.13</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:47</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.12</v>
+        <v>4.15</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.74</v>
+        <v>4.55</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.95</v>
+        <v>5.75</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.57</v>
+        <v>6.56</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>12.3</v>
+        <v>1.57</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>19.35</v>
+        <v>2.01</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:59</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>8.27</v>
+        <v>4.12</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>8.67</v>
+        <v>3.74</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.14</v>
+        <v>4.95</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.13</v>
+        <v>3.57</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:47</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:18</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.49</v>
+        <v>6.35</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4.52</v>
+        <v>5.04</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:37</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>6.2</v>
+        <v>9.09</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>5.78</v>
+        <v>7.62</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:37</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taee/2a9iew8s/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-wehda/CUpZxdhD/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:18</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>6.35</v>
+        <v>4.49</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>5.04</v>
+        <v>4.52</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:37</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>9.09</v>
+        <v>6.2</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>7.62</v>
+        <v>5.78</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:37</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-wehda/CUpZxdhD/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taee/2a9iew8s/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,374 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-riyadh/h2sw7z7g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45239.66666666666</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>09/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>09/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>09/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taee/WEHHIX55/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45239.66666666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>09/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>09/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>09/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-shabab/KxZgaq5p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45239.79166666666</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>09/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>09/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>09/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-fateh/WCxbb3Kj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45239.79166666666</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>06/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>09/11/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>06/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>09/11/2023 18:50</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>06/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>09/11/2023 18:50</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-ahli-sc/vuLPGBzI/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:46</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.11</v>
+        <v>6.31</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.82</v>
+        <v>6.77</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 20:00</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>11.73</v>
+        <v>12.27</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>11.15</v>
+        <v>15.94</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 20:00</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-taee/QeBGJbY8/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-feiha/n5CCKvJ2/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:46</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.31</v>
+        <v>6.11</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.77</v>
+        <v>6.82</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 20:00</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>12.27</v>
+        <v>11.73</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>15.94</v>
+        <v>11.15</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 20:00</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-feiha/n5CCKvJ2/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-taee/QeBGJbY8/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,48 +7956,48 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>07/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
           <t>07/10/2023 19:53</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O82" t="inlineStr">
+      <c r="R82" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S82" t="inlineStr">
         <is>
           <t>30/09/2023 19:17</t>
         </is>
       </c>
-      <c r="P82" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>07/10/2023 19:53</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:17</t>
-        </is>
-      </c>
       <c r="T82" t="n">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 19:53</t>
+          <t>07/10/2023 19:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>3.53</v>
+        <v>1.88</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.5</v>
+        <v>1.84</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:56</t>
+          <t>26/10/2023 17:00</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>3.92</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.04</v>
+        <v>3.99</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>2</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K93" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>24/10/2023 21:01</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>26/10/2023 16:50</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
-      <c r="P93" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>26/10/2023 17:00</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
       <c r="T93" t="n">
-        <v>3.99</v>
+        <v>2.04</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:50</t>
+          <t>26/10/2023 16:55</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.67</v>
+        <v>1.12</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2</v>
+        <v>1.16</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>04/11/2023 18:55</t>
+          <t>04/11/2023 18:59</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.1</v>
+        <v>10.36</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.42</v>
+        <v>8.41</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>04/11/2023 18:55</t>
+          <t>04/11/2023 18:59</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.82</v>
+        <v>17.36</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.96</v>
+        <v>13.11</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>04/11/2023 18:55</t>
+          <t>04/11/2023 18:59</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-raed/OSxZ7Gim/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-khaleej/EHVo5Ey6/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.12</v>
+        <v>1.67</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.16</v>
+        <v>2</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>04/11/2023 18:59</t>
+          <t>04/11/2023 18:55</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>10.36</v>
+        <v>4.1</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>8.41</v>
+        <v>3.42</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>04/11/2023 18:59</t>
+          <t>04/11/2023 18:55</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>17.36</v>
+        <v>4.82</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>13.11</v>
+        <v>3.96</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>04/11/2023 18:59</t>
+          <t>04/11/2023 18:55</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-khaleej/EHVo5Ey6/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-raed/OSxZ7Gim/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,190 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-ahli-sc/vuLPGBzI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45240.66666666666</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-taawon/pGQuNnci/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45240.79166666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>4</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-abha/0lMLHiLB/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>4.56</v>
+        <v>5.36</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>15.99</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.11</v>
+        <v>4.35</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>8.289999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:09</t>
+          <t>14/08/2023 16:55</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>5.36</v>
+        <v>4.56</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>15.99</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.35</v>
+        <v>4.11</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:55</t>
+          <t>14/08/2023 16:09</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:46</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.31</v>
+        <v>6.11</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.77</v>
+        <v>6.82</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 20:00</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>12.27</v>
+        <v>11.73</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>15.94</v>
+        <v>11.15</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 20:00</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-feiha/n5CCKvJ2/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-taee/QeBGJbY8/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:46</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.11</v>
+        <v>6.31</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.82</v>
+        <v>6.77</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 20:00</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>11.73</v>
+        <v>12.27</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>11.15</v>
+        <v>15.94</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 20:00</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-taee/QeBGJbY8/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-feiha/n5CCKvJ2/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
       <c r="J26" t="n">
-        <v>5.88</v>
+        <v>1.41</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4.83</v>
+        <v>1.6</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.63</v>
+        <v>4.82</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.55</v>
+        <v>4.37</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:59</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.44</v>
+        <v>5.97</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.61</v>
+        <v>5.15</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>25/08/2023 19:52</t>
+          <t>25/08/2023 19:53</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.82</v>
+        <v>4.32</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.37</v>
+        <v>3.95</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5.97</v>
+        <v>6.62</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.15</v>
+        <v>4.67</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>25/08/2023 19:53</t>
+          <t>25/08/2023 19:51</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-abha/KInC8YP7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.5</v>
+        <v>5.88</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.72</v>
+        <v>4.83</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.32</v>
+        <v>4.63</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.95</v>
+        <v>4.55</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:59</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.62</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.67</v>
+        <v>1.61</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>25/08/2023 19:51</t>
+          <t>25/08/2023 19:52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-damac/8rq89EA1/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-nassr/MNQfXH28/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>3</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Al Riyadh</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.19</v>
+        <v>12.33</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.28</v>
+        <v>11.76</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.63</v>
+        <v>6.66</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.63</v>
+        <v>6.19</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.03</v>
+        <v>1.24</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.18</v>
+        <v>2.19</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.21</v>
+        <v>2.28</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:58</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>7.07</v>
+        <v>3.63</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>7.06</v>
+        <v>3.63</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>12.26</v>
+        <v>3.1</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>11.29</v>
+        <v>3.03</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
       <c r="J32" t="n">
-        <v>12.33</v>
+        <v>1.18</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,48 +3356,48 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>11.76</v>
+        <v>1.21</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>28/08/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>27/08/2023 12:36</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>28/08/2023 19:59</t>
         </is>
       </c>
-      <c r="N32" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="R32" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>27/08/2023 12:36</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="Q32" t="inlineStr">
+      <c r="T32" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>28/08/2023 19:59</t>
         </is>
       </c>
-      <c r="R32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>27/08/2023 12:36</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>28/08/2023 19:43</t>
-        </is>
-      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:42</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>6.07</v>
+        <v>5.14</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>8.74</v>
+        <v>5.69</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>9.289999999999999</v>
+        <v>6.68</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>15.83</v>
+        <v>7.34</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.39</v>
+        <v>2.13</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>2.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:34</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.14</v>
+        <v>3.54</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.69</v>
+        <v>3.67</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.68</v>
+        <v>3.28</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>7.34</v>
+        <v>3.5</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.13</v>
+        <v>1.26</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>1.14</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:34</t>
+          <t>29/08/2023 19:42</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.54</v>
+        <v>6.07</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.67</v>
+        <v>8.74</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.28</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.5</v>
+        <v>15.83</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>12.3</v>
+        <v>1.57</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>19.35</v>
+        <v>2.01</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:59</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>8.27</v>
+        <v>4.12</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>8.67</v>
+        <v>3.74</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.14</v>
+        <v>4.95</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.13</v>
+        <v>3.57</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:47</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.57</v>
+        <v>12.3</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.01</v>
+        <v>19.35</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.12</v>
+        <v>8.27</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.74</v>
+        <v>8.67</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.95</v>
+        <v>1.14</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.57</v>
+        <v>1.13</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:47</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.83</v>
+        <v>6.23</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.72</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.57</v>
+        <v>4.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:54</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>6.23</v>
+        <v>3.83</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.05</v>
+        <v>4.92</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>8.609999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.57</v>
+        <v>6.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
         <v>2</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K92" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>24/10/2023 21:01</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>26/10/2023 16:50</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>26/10/2023 17:00</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
       <c r="T92" t="n">
-        <v>3.99</v>
+        <v>2.04</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:50</t>
+          <t>26/10/2023 16:55</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3.53</v>
+        <v>1.88</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.5</v>
+        <v>1.84</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:56</t>
+          <t>26/10/2023 17:00</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>3.92</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.04</v>
+        <v>3.99</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
         </is>
       </c>
     </row>
@@ -11034,6 +11034,282 @@
       <c r="V115" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-abha/0lMLHiLB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ettifaq-fc/ddP4LZLn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hazem-rass/AaT8Kgyg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45241.79166666666</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-nassr/hOIDJDja/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.22</v>
+        <v>1.35</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5.1</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.58</v>
+        <v>5.11</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.24</v>
+        <v>6.91</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:53</t>
+          <t>18/08/2023 19:57</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.25</v>
+        <v>8.58</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>11.02</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:53</t>
+          <t>18/08/2023 19:57</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-shabab/fcARdyRe/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-taawon/CYKMcHBk/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.35</v>
+        <v>2.97</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>4.57</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:53</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5.11</v>
+        <v>3.44</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>6.91</v>
+        <v>3.9</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:57</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>8.58</v>
+        <v>2.39</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>11.02</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:57</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-taawon/CYKMcHBk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-ettifaq-fc/bVGIbcdq/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.97</v>
+        <v>3.22</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.57</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:53</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.44</v>
+        <v>3.58</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.9</v>
+        <v>4.24</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:53</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:53</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-ettifaq-fc/bVGIbcdq/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-shabab/fcARdyRe/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,48 +7864,48 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
+          <t>07/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
           <t>07/10/2023 19:53</t>
         </is>
       </c>
-      <c r="N81" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O81" t="inlineStr">
+      <c r="R81" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S81" t="inlineStr">
         <is>
           <t>30/09/2023 19:17</t>
         </is>
       </c>
-      <c r="P81" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>07/10/2023 19:53</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:17</t>
-        </is>
-      </c>
       <c r="T81" t="n">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 19:53</t>
+          <t>07/10/2023 19:56</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,22 +8033,22 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>3.22</v>
+        <v>4.56</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.86</v>
+        <v>4.61</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.32</v>
+        <v>4.09</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.49</v>
+        <v>4.24</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/10/2023 16:59</t>
+          <t>20/10/2023 16:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/10/2023 16:59</t>
+          <t>20/10/2023 16:51</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-feiha/EZOH1uVD/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-ittihad/44sRvIN0/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,22 +8125,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>4.56</v>
+        <v>3.22</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4.61</v>
+        <v>2.86</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,40 +8148,40 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.09</v>
+        <v>3.32</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.24</v>
+        <v>3.49</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/10/2023 16:58</t>
+          <t>20/10/2023 16:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.63</v>
+        <v>2.25</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.68</v>
+        <v>2.45</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>20/10/2023 16:51</t>
+          <t>20/10/2023 16:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-ittihad/44sRvIN0/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-feiha/EZOH1uVD/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:38</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.56</v>
+        <v>11.38</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>5.34</v>
+        <v>11.29</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.75</v>
+        <v>21.56</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>6.72</v>
+        <v>19.58</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
       <c r="J86" t="n">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:38</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>11.38</v>
+        <v>4.56</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>11.29</v>
+        <v>5.34</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>21.56</v>
+        <v>4.75</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>19.58</v>
+        <v>6.72</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>3.77</v>
+        <v>5.59</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>4.27</v>
+        <v>6.97</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.63</v>
+        <v>4.98</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.04</v>
+        <v>5.6</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>1.87</v>
+        <v>1.49</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.76</v>
+        <v>1.37</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-shabab/tAraEIEJ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-nassr/ve12DxUP/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>1</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>3</v>
-      </c>
       <c r="J99" t="n">
-        <v>5.59</v>
+        <v>3.77</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>6.97</v>
+        <v>4.27</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4.98</v>
+        <v>3.63</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>5.6</v>
+        <v>4.04</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>1.49</v>
+        <v>1.87</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.37</v>
+        <v>1.76</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-nassr/ve12DxUP/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-shabab/tAraEIEJ/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.12</v>
+        <v>1.67</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.16</v>
+        <v>2</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>04/11/2023 18:59</t>
+          <t>04/11/2023 18:55</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>10.36</v>
+        <v>4.1</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>8.41</v>
+        <v>3.42</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>04/11/2023 18:59</t>
+          <t>04/11/2023 18:55</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>17.36</v>
+        <v>4.82</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>13.11</v>
+        <v>3.96</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>04/11/2023 18:59</t>
+          <t>04/11/2023 18:55</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-khaleej/EHVo5Ey6/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-raed/OSxZ7Gim/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.67</v>
+        <v>1.12</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>1.16</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>04/11/2023 18:55</t>
+          <t>04/11/2023 18:59</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>4.1</v>
+        <v>10.36</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.42</v>
+        <v>8.41</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>04/11/2023 18:55</t>
+          <t>04/11/2023 18:59</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.82</v>
+        <v>17.36</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.96</v>
+        <v>13.11</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>04/11/2023 18:55</t>
+          <t>04/11/2023 18:59</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-raed/OSxZ7Gim/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-khaleej/EHVo5Ey6/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.96</v>
+        <v>3.61</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.12</v>
+        <v>3.28</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>09/11/2023 15:48</t>
+          <t>09/11/2023 15:53</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.46</v>
+        <v>3.85</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.64</v>
+        <v>1.95</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.27</v>
+        <v>2.15</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>09/11/2023 15:48</t>
+          <t>09/11/2023 15:53</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taee/WEHHIX55/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-shabab/KxZgaq5p/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>3.61</v>
+        <v>1.96</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>3.28</v>
+        <v>2.12</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>09/11/2023 15:53</t>
+          <t>09/11/2023 15:48</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.85</v>
+        <v>3.46</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="R111" t="n">
-        <v>1.95</v>
+        <v>3.64</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>2.15</v>
+        <v>3.27</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>09/11/2023 15:53</t>
+          <t>09/11/2023 15:48</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-shabab/KxZgaq5p/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taee/WEHHIX55/</t>
         </is>
       </c>
     </row>
@@ -11061,30 +11061,30 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2.7</v>
+        <v>2.19</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.12</v>
+        <v>1.72</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -11092,15 +11092,15 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.33</v>
+        <v>4.09</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -11108,15 +11108,15 @@
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.57</v>
+        <v>3.06</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.36</v>
+        <v>4.49</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ettifaq-fc/ddP4LZLn/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hazem-rass/AaT8Kgyg/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.19</v>
+        <v>2.7</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.72</v>
+        <v>3.12</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,15 +11184,15 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.47</v>
+        <v>3.21</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.09</v>
+        <v>3.33</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -11200,15 +11200,15 @@
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.06</v>
+        <v>2.57</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.49</v>
+        <v>2.36</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hazem-rass/AaT8Kgyg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ettifaq-fc/ddP4LZLn/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,374 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-nassr/hOIDJDja/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45254.66666666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45254.66666666666</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45254.79166666666</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>3</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-akhdoud/pbBvBt4d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45254.79166666666</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>3</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-raed/trKlLQR3/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.35</v>
+        <v>3.22</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.22</v>
+        <v>5.1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>5.11</v>
+        <v>3.58</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>6.91</v>
+        <v>4.24</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:57</t>
+          <t>18/08/2023 19:53</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>8.58</v>
+        <v>2.25</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>11.02</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:57</t>
+          <t>18/08/2023 19:53</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-taawon/CYKMcHBk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-shabab/fcARdyRe/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.97</v>
+        <v>1.35</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.57</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:53</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.44</v>
+        <v>5.11</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.9</v>
+        <v>6.91</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:57</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.39</v>
+        <v>8.58</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>11.02</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:46</t>
+          <t>18/08/2023 19:57</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-ettifaq-fc/bVGIbcdq/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-taawon/CYKMcHBk/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.22</v>
+        <v>2.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>4.57</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:53</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.58</v>
+        <v>3.44</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.24</v>
+        <v>3.9</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:53</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>18/08/2023 19:53</t>
+          <t>18/08/2023 19:46</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-shabab/fcARdyRe/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-ettifaq-fc/bVGIbcdq/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
       <c r="J21" t="n">
-        <v>13.51</v>
+        <v>1.16</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>12.1</v>
+        <v>1.11</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:40</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>6.52</v>
+        <v>7.91</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>6.94</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>16.84</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.22</v>
+        <v>29.41</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:07</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>12.64</v>
+        <v>1.56</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>18.25</v>
+        <v>1.85</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>6.75</v>
+        <v>4.25</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>9.07</v>
+        <v>3.7</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>4.92</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.14</v>
+        <v>4.2</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.56</v>
+        <v>13.51</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.85</v>
+        <v>12.1</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.25</v>
+        <v>6.52</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.7</v>
+        <v>6.94</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.92</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.2</v>
+        <v>1.22</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:07</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.16</v>
+        <v>12.64</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.11</v>
+        <v>18.25</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:40</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>7.91</v>
+        <v>6.75</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>9.279999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>16.84</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>29.41</v>
+        <v>1.14</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
       <c r="J30" t="n">
-        <v>12.33</v>
+        <v>1.18</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,48 +3172,48 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>11.76</v>
+        <v>1.21</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>28/08/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>27/08/2023 12:36</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>28/08/2023 19:59</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="R30" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>27/08/2023 12:36</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="Q30" t="inlineStr">
+      <c r="T30" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>28/08/2023 19:59</t>
         </is>
       </c>
-      <c r="R30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>27/08/2023 12:36</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>28/08/2023 19:43</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Al Riyadh</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.19</v>
+        <v>12.33</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.28</v>
+        <v>11.76</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.63</v>
+        <v>6.66</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.63</v>
+        <v>6.19</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.03</v>
+        <v>1.24</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.18</v>
+        <v>2.19</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.21</v>
+        <v>2.28</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:58</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>7.07</v>
+        <v>3.63</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>7.06</v>
+        <v>3.63</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>12.26</v>
+        <v>3.1</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>11.29</v>
+        <v>3.03</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>5.14</v>
+        <v>6.07</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.69</v>
+        <v>8.74</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>6.68</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>7.34</v>
+        <v>15.83</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.13</v>
+        <v>1.39</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.05</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:34</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.54</v>
+        <v>5.14</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.67</v>
+        <v>5.69</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.28</v>
+        <v>6.68</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.5</v>
+        <v>7.34</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.26</v>
+        <v>2.13</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.14</v>
+        <v>2.05</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:42</t>
+          <t>29/08/2023 19:34</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>6.07</v>
+        <v>3.54</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>8.74</v>
+        <v>3.67</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>9.289999999999999</v>
+        <v>3.28</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>15.83</v>
+        <v>3.5</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
         </is>
       </c>
     </row>
@@ -3885,34 +3885,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3920,36 +3920,36 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.13</v>
+        <v>3.66</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
         </is>
       </c>
     </row>
@@ -3977,34 +3977,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -4012,36 +4012,36 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.24</v>
+        <v>3.37</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.66</v>
+        <v>4.13</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.57</v>
+        <v>12.3</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.01</v>
+        <v>19.35</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:59</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.12</v>
+        <v>8.27</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.74</v>
+        <v>8.67</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.95</v>
+        <v>1.14</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>19/09/2023 19:36</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.57</v>
+        <v>1.13</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:47</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.47</v>
+        <v>2.01</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>6.56</v>
+        <v>3.57</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -5725,46 +5725,46 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>12.3</v>
+        <v>1.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>19.35</v>
+        <v>1.47</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:59</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>8.27</v>
+        <v>4.15</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>8.67</v>
+        <v>4.55</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5772,24 +5772,24 @@
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.14</v>
+        <v>5.75</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:36</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.13</v>
+        <v>6.56</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:47</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-hilal/OCKZlsUA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:54</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>6.23</v>
+        <v>3.83</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.05</v>
+        <v>4.92</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>8.609999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.57</v>
+        <v>6.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:54</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.83</v>
+        <v>6.23</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.72</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.57</v>
+        <v>4.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>1</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Al Feiha</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
       <c r="J61" t="n">
-        <v>2.23</v>
+        <v>2.86</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>19/09/2023 20:00</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4.01</v>
+        <v>2.32</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>22/09/2023 16:59</t>
+          <t>22/09/2023 16:51</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.52</v>
+        <v>3.31</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>19/09/2023 20:00</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.71</v>
+        <v>3.51</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>22/09/2023 16:50</t>
+          <t>22/09/2023 16:51</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.95</v>
+        <v>2.39</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>19/09/2023 20:00</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.89</v>
+        <v>3.04</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>22/09/2023 16:59</t>
+          <t>22/09/2023 16:51</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-feiha/UkLVkNE4/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-khaleej/48m9YLqU/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>2.86</v>
+        <v>2.23</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:00</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.32</v>
+        <v>4.01</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>22/09/2023 16:51</t>
+          <t>22/09/2023 16:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.31</v>
+        <v>3.52</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:00</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.51</v>
+        <v>3.71</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>22/09/2023 16:51</t>
+          <t>22/09/2023 16:50</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.39</v>
+        <v>2.95</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:00</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.04</v>
+        <v>1.89</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>22/09/2023 16:51</t>
+          <t>22/09/2023 16:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-khaleej/48m9YLqU/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-feiha/UkLVkNE4/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>4.14</v>
+        <v>1.84</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.93</v>
+        <v>1.75</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.26</v>
+        <v>3.78</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.75</v>
+        <v>4.13</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.21</v>
+        <v>4.65</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 16:58</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.84</v>
+        <v>4.14</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,48 @@
         </is>
       </c>
       <c r="L96" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
         <v>1.75</v>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U96" t="inlineStr">
         <is>
           <t>27/10/2023 16:59</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="T96" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:58</t>
-        </is>
-      </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>3.61</v>
+        <v>1.96</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>3.28</v>
+        <v>2.12</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>09/11/2023 15:53</t>
+          <t>09/11/2023 15:48</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.85</v>
+        <v>3.46</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="R110" t="n">
-        <v>1.95</v>
+        <v>3.64</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.15</v>
+        <v>3.27</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>09/11/2023 15:53</t>
+          <t>09/11/2023 15:48</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-shabab/KxZgaq5p/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taee/WEHHIX55/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.96</v>
+        <v>3.61</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.12</v>
+        <v>3.28</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>09/11/2023 15:48</t>
+          <t>09/11/2023 15:53</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.46</v>
+        <v>3.85</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.64</v>
+        <v>1.95</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.27</v>
+        <v>2.15</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>09/11/2023 15:48</t>
+          <t>09/11/2023 15:53</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taee/WEHHIX55/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-shabab/KxZgaq5p/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>4.45</v>
+        <v>4.18</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>4.56</v>
+        <v>4.06</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.11</v>
+        <v>4.22</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.22</v>
+        <v>3.95</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-fateh/WCxbb3Kj/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-ahli-sc/vuLPGBzI/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>4.18</v>
+        <v>4.45</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>06/11/2023 03:42</t>
+          <t>05/11/2023 19:12</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>4.06</v>
+        <v>4.56</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="N113" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
         <v>4.22</v>
       </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>06/11/2023 03:42</t>
-        </is>
-      </c>
-      <c r="P113" t="n">
-        <v>3.95</v>
-      </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>06/11/2023 03:42</t>
+          <t>05/11/2023 19:12</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-ahli-sc/vuLPGBzI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-fateh/WCxbb3Kj/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.35</v>
+        <v>3.84</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.37</v>
+        <v>3.08</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>5.11</v>
+        <v>3.87</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.32</v>
+        <v>3.34</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>6.86</v>
+        <v>1.79</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>7.56</v>
+        <v>2.38</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>3.84</v>
+        <v>1.35</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.08</v>
+        <v>1.37</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.87</v>
+        <v>5.11</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.34</v>
+        <v>5.32</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>1.79</v>
+        <v>6.86</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.38</v>
+        <v>7.56</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
         </is>
       </c>
     </row>
@@ -11678,6 +11678,466 @@
       <c r="V122" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-raed/trKlLQR3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45255.66666666666</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>9</v>
+      </c>
+      <c r="J123" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-hilal/CWcXC2Zq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45255.79166666666</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>3</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-khaleej/O6PqM6Cc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45255.79166666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-shabab/67CzCMlj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45255.79166666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:34</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:34</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:17</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-feiha/ANB5HrRS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45255.79166666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>4</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-abha/EeIdJ4dG/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.54</v>
+        <v>3.69</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>07/08/2023 20:42</t>
+          <t>07/08/2023 20:41</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14/08/2023 19:51</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.41</v>
+        <v>3.86</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>07/08/2023 20:42</t>
+          <t>07/08/2023 20:41</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.34</v>
+        <v>3.73</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>14/08/2023 19:51</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5.65</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>07/08/2023 20:42</t>
+          <t>07/08/2023 20:41</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>5.01</v>
+        <v>3.01</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>14/08/2023 19:51</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-akhdoud/C0s5ED54/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-nassr/Y9r1Fgjb/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.69</v>
+        <v>1.54</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>07/08/2023 20:41</t>
+          <t>07/08/2023 20:42</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.25</v>
+        <v>1.61</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:51</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.86</v>
+        <v>4.41</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>07/08/2023 20:41</t>
+          <t>07/08/2023 20:42</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.73</v>
+        <v>4.34</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:51</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.98</v>
+        <v>5.65</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>07/08/2023 20:41</t>
+          <t>07/08/2023 20:42</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.01</v>
+        <v>5.01</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:51</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-nassr/Y9r1Fgjb/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-akhdoud/C0s5ED54/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>2.86</v>
+        <v>2.23</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:00</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.32</v>
+        <v>4.01</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>22/09/2023 16:51</t>
+          <t>22/09/2023 16:59</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.31</v>
+        <v>3.52</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:00</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.51</v>
+        <v>3.71</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>22/09/2023 16:51</t>
+          <t>22/09/2023 16:50</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.39</v>
+        <v>2.95</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>19/09/2023 20:02</t>
+          <t>19/09/2023 20:00</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.04</v>
+        <v>1.89</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>22/09/2023 16:51</t>
+          <t>22/09/2023 16:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-khaleej/48m9YLqU/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-feiha/UkLVkNE4/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Al Feiha</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>3</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.23</v>
+        <v>2.86</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>19/09/2023 20:00</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4.01</v>
+        <v>2.32</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>22/09/2023 16:59</t>
+          <t>22/09/2023 16:51</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.52</v>
+        <v>3.31</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>19/09/2023 20:00</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.71</v>
+        <v>3.51</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>22/09/2023 16:50</t>
+          <t>22/09/2023 16:51</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.95</v>
+        <v>2.39</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>19/09/2023 20:00</t>
+          <t>19/09/2023 20:02</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1.89</v>
+        <v>3.04</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>22/09/2023 16:59</t>
+          <t>22/09/2023 16:51</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-feiha/UkLVkNE4/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-khaleej/48m9YLqU/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,48 +7956,48 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>07/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
           <t>07/10/2023 19:53</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O82" t="inlineStr">
+      <c r="R82" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S82" t="inlineStr">
         <is>
           <t>30/09/2023 19:17</t>
         </is>
       </c>
-      <c r="P82" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>07/10/2023 19:53</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:17</t>
-        </is>
-      </c>
       <c r="T82" t="n">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 19:53</t>
+          <t>07/10/2023 19:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,22 +8033,22 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>4.56</v>
+        <v>3.22</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.61</v>
+        <v>2.86</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.09</v>
+        <v>3.32</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.24</v>
+        <v>3.49</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/10/2023 16:58</t>
+          <t>20/10/2023 16:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.63</v>
+        <v>2.25</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.68</v>
+        <v>2.45</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/10/2023 16:51</t>
+          <t>20/10/2023 16:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-ittihad/44sRvIN0/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-feiha/EZOH1uVD/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,22 +8125,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.22</v>
+        <v>4.56</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.86</v>
+        <v>4.61</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,40 +8148,40 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.32</v>
+        <v>4.09</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.49</v>
+        <v>4.24</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/10/2023 16:59</t>
+          <t>20/10/2023 16:58</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>20/10/2023 16:59</t>
+          <t>20/10/2023 16:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-feiha/EZOH1uVD/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-ittihad/44sRvIN0/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>1</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:38</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>11.38</v>
+        <v>4.56</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>11.29</v>
+        <v>5.34</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>21.56</v>
+        <v>4.75</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>19.58</v>
+        <v>6.72</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:38</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.56</v>
+        <v>11.38</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>5.34</v>
+        <v>11.29</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.75</v>
+        <v>21.56</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>6.72</v>
+        <v>19.58</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>3.53</v>
+        <v>1.88</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.5</v>
+        <v>1.84</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:56</t>
+          <t>26/10/2023 17:00</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>3.92</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.04</v>
+        <v>3.99</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>2</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K93" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>24/10/2023 21:01</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>26/10/2023 16:50</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
-      <c r="P93" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>26/10/2023 17:00</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
       <c r="T93" t="n">
-        <v>3.99</v>
+        <v>2.04</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:50</t>
+          <t>26/10/2023 16:55</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.84</v>
+        <v>4.14</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
         <v>1.75</v>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U95" t="inlineStr">
         <is>
           <t>27/10/2023 16:59</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:58</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>4.14</v>
+        <v>1.84</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.93</v>
+        <v>1.75</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.26</v>
+        <v>3.78</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.75</v>
+        <v>4.13</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.21</v>
+        <v>4.65</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 16:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
       <c r="J98" t="n">
-        <v>5.59</v>
+        <v>3.77</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>6.97</v>
+        <v>4.27</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.98</v>
+        <v>3.63</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>5.6</v>
+        <v>4.04</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>1.49</v>
+        <v>1.87</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.37</v>
+        <v>1.76</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-nassr/ve12DxUP/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-shabab/tAraEIEJ/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>3.77</v>
+        <v>5.59</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>4.27</v>
+        <v>6.97</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.63</v>
+        <v>4.98</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.04</v>
+        <v>5.6</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>1.87</v>
+        <v>1.49</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.76</v>
+        <v>1.37</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-shabab/tAraEIEJ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-nassr/ve12DxUP/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>3.84</v>
+        <v>1.35</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.08</v>
+        <v>1.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.87</v>
+        <v>5.11</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.34</v>
+        <v>5.32</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>1.79</v>
+        <v>6.86</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.38</v>
+        <v>7.56</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.35</v>
+        <v>3.84</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.37</v>
+        <v>3.08</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>5.11</v>
+        <v>3.87</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>5.32</v>
+        <v>3.34</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>6.86</v>
+        <v>1.79</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>7.56</v>
+        <v>2.38</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.9</v>
+        <v>1.51</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.77</v>
+        <v>4.54</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.72</v>
+        <v>3.84</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.53</v>
+        <v>5.05</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-khaleej/O6PqM6Cc/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-shabab/67CzCMlj/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,63 +11897,63 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>1.51</v>
+        <v>1.97</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:34</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>4.54</v>
+        <v>3.99</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.84</v>
+        <v>4.11</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:34</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>5.05</v>
+        <v>3.17</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>3.33</v>
+        <v>3.48</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:17</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-shabab/67CzCMlj/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-feiha/ANB5HrRS/</t>
         </is>
       </c>
     </row>
@@ -11981,71 +11981,71 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>25/11/2023 18:34</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.99</v>
+        <v>3.77</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>4.11</v>
+        <v>3.72</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>25/11/2023 18:34</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.17</v>
+        <v>3.53</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.48</v>
+        <v>3.47</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>25/11/2023 18:17</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-feiha/ANB5HrRS/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-khaleej/O6PqM6Cc/</t>
         </is>
       </c>
     </row>
@@ -12138,6 +12138,282 @@
       <c r="V127" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-abha/EeIdJ4dG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45260.66666666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>30/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>30/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>30/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-hazem-rass/YJiZWNQF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45260.66666666666</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>6</v>
+      </c>
+      <c r="J129" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>30/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>30/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>30/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-ahli-sc/tQQIOaYe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45260.79166666666</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>30/11/2023 18:45</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>30/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>30/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-khaleej/fThVX3B9/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V130"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>5.36</v>
+        <v>4.56</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>15.99</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.35</v>
+        <v>4.11</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:55</t>
+          <t>14/08/2023 16:09</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>4.56</v>
+        <v>5.36</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>15.99</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.11</v>
+        <v>4.35</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>8.289999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:09</t>
+          <t>14/08/2023 16:55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,48 +7864,48 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
+          <t>07/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:17</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
           <t>07/10/2023 19:53</t>
         </is>
       </c>
-      <c r="N81" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O81" t="inlineStr">
+      <c r="R81" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S81" t="inlineStr">
         <is>
           <t>30/09/2023 19:17</t>
         </is>
       </c>
-      <c r="P81" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>07/10/2023 19:53</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:17</t>
-        </is>
-      </c>
       <c r="T81" t="n">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 19:53</t>
+          <t>07/10/2023 19:56</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 19:56</t>
+          <t>07/10/2023 19:53</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-raed/C62nn0VQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-feiha/j1HiQI87/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:38</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.56</v>
+        <v>11.38</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>5.34</v>
+        <v>11.29</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.75</v>
+        <v>21.56</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>6.72</v>
+        <v>19.58</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
       <c r="J86" t="n">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:38</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>11.38</v>
+        <v>4.56</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>11.29</v>
+        <v>5.34</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>21.56</v>
+        <v>4.75</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>19.58</v>
+        <v>6.72</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
         <v>2</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K92" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>24/10/2023 21:01</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>26/10/2023 16:50</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>26/10/2023 17:00</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
       <c r="T92" t="n">
-        <v>3.99</v>
+        <v>2.04</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:50</t>
+          <t>26/10/2023 16:55</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3.53</v>
+        <v>1.88</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.5</v>
+        <v>1.84</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:56</t>
+          <t>26/10/2023 17:00</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>3.92</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.04</v>
+        <v>3.99</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>5.32</v>
+        <v>2.73</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>10.37</v>
+        <v>3.06</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:57</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>5.18</v>
+        <v>3.38</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>6.9</v>
+        <v>3.43</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:57</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>1.43</v>
+        <v>2.45</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>1.23</v>
+        <v>2.35</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:52</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-hilal/0YXc2CLO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-feiha/SKZk4YjC/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.73</v>
+        <v>5.32</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.06</v>
+        <v>10.37</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:57</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.38</v>
+        <v>5.18</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.43</v>
+        <v>6.9</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:57</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.45</v>
+        <v>1.43</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.35</v>
+        <v>1.23</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:52</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-feiha/SKZk4YjC/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-hilal/0YXc2CLO/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>4.18</v>
+        <v>4.45</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>06/11/2023 03:42</t>
+          <t>05/11/2023 19:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>4.06</v>
+        <v>4.56</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="N112" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
         <v>4.22</v>
       </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>06/11/2023 03:42</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
-        <v>3.95</v>
-      </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>06/11/2023 03:42</t>
+          <t>05/11/2023 19:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-ahli-sc/vuLPGBzI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-fateh/WCxbb3Kj/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>4.45</v>
+        <v>4.18</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>4.56</v>
+        <v>4.06</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.11</v>
+        <v>4.22</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>4.22</v>
+        <v>3.95</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-fateh/WCxbb3Kj/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-ahli-sc/vuLPGBzI/</t>
         </is>
       </c>
     </row>
@@ -11061,30 +11061,30 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.19</v>
+        <v>2.7</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.72</v>
+        <v>3.12</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -11092,15 +11092,15 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.47</v>
+        <v>3.21</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.09</v>
+        <v>3.33</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -11108,15 +11108,15 @@
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.06</v>
+        <v>2.57</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>4.49</v>
+        <v>2.36</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hazem-rass/AaT8Kgyg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ettifaq-fc/ddP4LZLn/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.7</v>
+        <v>2.19</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>3.12</v>
+        <v>1.72</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,15 +11184,15 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.33</v>
+        <v>4.09</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -11200,15 +11200,15 @@
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.57</v>
+        <v>3.06</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.36</v>
+        <v>4.49</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ettifaq-fc/ddP4LZLn/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hazem-rass/AaT8Kgyg/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.35</v>
+        <v>3.84</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.37</v>
+        <v>3.08</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>5.11</v>
+        <v>3.87</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.32</v>
+        <v>3.34</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>6.86</v>
+        <v>1.79</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>7.56</v>
+        <v>2.38</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>3.84</v>
+        <v>1.35</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.08</v>
+        <v>1.37</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.87</v>
+        <v>5.11</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.34</v>
+        <v>5.32</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>1.79</v>
+        <v>6.86</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.38</v>
+        <v>7.56</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J128" t="n">
-        <v>1.85</v>
+        <v>4.13</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.83</v>
+        <v>5.16</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.24</v>
+        <v>4.2</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.38</v>
+        <v>4.65</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>30/11/2023 15:58</t>
+          <t>30/11/2023 15:59</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>3.34</v>
+        <v>1.67</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.54</v>
+        <v>1.56</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-hazem-rass/YJiZWNQF/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-ahli-sc/tQQIOaYe/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>4.13</v>
+        <v>1.85</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>5.16</v>
+        <v>2.83</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>4.2</v>
+        <v>4.24</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,32 +12296,32 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.65</v>
+        <v>3.38</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
+          <t>30/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
           <t>30/11/2023 15:59</t>
         </is>
       </c>
-      <c r="R129" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>28/11/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T129" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U129" t="inlineStr">
-        <is>
-          <t>30/11/2023 15:59</t>
-        </is>
-      </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-ahli-sc/tQQIOaYe/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-hazem-rass/YJiZWNQF/</t>
         </is>
       </c>
     </row>
@@ -12414,6 +12414,190 @@
       <c r="V130" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-khaleej/fThVX3B9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45261.66666666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>4</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-damac/UoorV1eS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45261.79166666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>3</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-nassr/nRX9QL3q/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V132"/>
+  <dimension ref="A1:V136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 19:51</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.38</v>
+        <v>3.58</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 19:51</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.57</v>
+        <v>2.86</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 19:51</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-wehda/Ov1AhWro/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-taawon/MVErcCzU/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 19:51</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.58</v>
+        <v>3.38</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.69</v>
+        <v>3.54</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 19:51</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.86</v>
+        <v>3.57</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 19:51</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-taawon/MVErcCzU/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-wehda/Ov1AhWro/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>4.56</v>
+        <v>5.36</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>15.99</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.11</v>
+        <v>4.35</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>8.289999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:09</t>
+          <t>14/08/2023 16:55</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>5.36</v>
+        <v>4.56</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>15.99</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.35</v>
+        <v>4.11</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:55</t>
+          <t>14/08/2023 16:09</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.96</v>
+        <v>3.61</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.12</v>
+        <v>3.28</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>09/11/2023 15:48</t>
+          <t>09/11/2023 15:53</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.46</v>
+        <v>3.85</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.64</v>
+        <v>1.95</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.27</v>
+        <v>2.15</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>09/11/2023 15:48</t>
+          <t>09/11/2023 15:53</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taee/WEHHIX55/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-shabab/KxZgaq5p/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>3.61</v>
+        <v>1.96</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>3.28</v>
+        <v>2.12</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>09/11/2023 15:53</t>
+          <t>09/11/2023 15:48</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.85</v>
+        <v>3.46</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="R111" t="n">
-        <v>1.95</v>
+        <v>3.64</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>2.15</v>
+        <v>3.27</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>09/11/2023 15:53</t>
+          <t>09/11/2023 15:48</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-shabab/KxZgaq5p/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taee/WEHHIX55/</t>
         </is>
       </c>
     </row>
@@ -11061,30 +11061,30 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2.7</v>
+        <v>2.19</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.12</v>
+        <v>1.72</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -11092,15 +11092,15 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.33</v>
+        <v>4.09</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -11108,15 +11108,15 @@
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.57</v>
+        <v>3.06</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.36</v>
+        <v>4.49</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ettifaq-fc/ddP4LZLn/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hazem-rass/AaT8Kgyg/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.19</v>
+        <v>2.7</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.72</v>
+        <v>3.12</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,15 +11184,15 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.47</v>
+        <v>3.21</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.09</v>
+        <v>3.33</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -11200,15 +11200,15 @@
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.06</v>
+        <v>2.57</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.49</v>
+        <v>2.36</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hazem-rass/AaT8Kgyg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ettifaq-fc/ddP4LZLn/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>3.84</v>
+        <v>1.35</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.08</v>
+        <v>1.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.87</v>
+        <v>5.11</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.34</v>
+        <v>5.32</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>1.79</v>
+        <v>6.86</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.38</v>
+        <v>7.56</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.35</v>
+        <v>3.84</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.37</v>
+        <v>3.08</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>5.11</v>
+        <v>3.87</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>5.32</v>
+        <v>3.34</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>6.86</v>
+        <v>1.79</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>7.56</v>
+        <v>2.38</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G121" t="n">
+        <v>4</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
         <v>3</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
       <c r="J121" t="n">
-        <v>1.12</v>
+        <v>2.75</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.24</v>
+        <v>4.15</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>24/11/2023 18:55</t>
+          <t>24/11/2023 18:57</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>9.470000000000001</v>
+        <v>3.67</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>7.01</v>
+        <v>3.63</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>24/11/2023 18:57</t>
+          <t>24/11/2023 18:58</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>12.33</v>
+        <v>2.3</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>9.31</v>
+        <v>1.88</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>24/11/2023 18:57</t>
+          <t>24/11/2023 18:53</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-akhdoud/pbBvBt4d/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-raed/trKlLQR3/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2.75</v>
+        <v>1.12</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,48 +11636,48 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>4.15</v>
+        <v>1.24</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
+          <t>24/11/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
           <t>24/11/2023 18:57</t>
         </is>
       </c>
-      <c r="N122" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O122" t="inlineStr">
+      <c r="R122" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="S122" t="inlineStr">
         <is>
           <t>17/11/2023 19:43</t>
         </is>
       </c>
-      <c r="P122" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>24/11/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R122" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>17/11/2023 19:43</t>
-        </is>
-      </c>
       <c r="T122" t="n">
-        <v>1.88</v>
+        <v>9.31</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>24/11/2023 18:53</t>
+          <t>24/11/2023 18:57</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-raed/trKlLQR3/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-akhdoud/pbBvBt4d/</t>
         </is>
       </c>
     </row>
@@ -12598,6 +12598,374 @@
       <c r="V132" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-nassr/nRX9QL3q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-ettifaq-fc/06gRYqd3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-taee/n3kNZPtc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45262.79166666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:43</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:43</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:43</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-wehda/jenvWstM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45262.79166666666</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:43</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:18</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:43</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:43</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taawon/b1yEPuJk/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V136"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13/08/2023 19:51</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.58</v>
+        <v>3.38</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.69</v>
+        <v>3.54</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>13/08/2023 19:51</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.86</v>
+        <v>3.57</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>13/08/2023 19:51</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-taawon/MVErcCzU/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-wehda/Ov1AhWro/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 19:51</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.38</v>
+        <v>3.58</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 19:51</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.57</v>
+        <v>2.86</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 19:51</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-wehda/Ov1AhWro/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-taawon/MVErcCzU/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>5.36</v>
+        <v>4.56</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>15.99</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.35</v>
+        <v>4.11</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:55</t>
+          <t>14/08/2023 16:09</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>4.56</v>
+        <v>5.36</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>15.99</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.11</v>
+        <v>4.35</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>8.289999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:09</t>
+          <t>14/08/2023 16:55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.69</v>
+        <v>1.54</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>07/08/2023 20:41</t>
+          <t>07/08/2023 20:42</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.25</v>
+        <v>1.61</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:51</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.86</v>
+        <v>4.41</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>07/08/2023 20:41</t>
+          <t>07/08/2023 20:42</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.73</v>
+        <v>4.34</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:51</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>5.65</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>07/08/2023 20:41</t>
+          <t>07/08/2023 20:42</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.01</v>
+        <v>5.01</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:51</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-nassr/Y9r1Fgjb/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-akhdoud/C0s5ED54/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.54</v>
+        <v>3.69</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>07/08/2023 20:42</t>
+          <t>07/08/2023 20:41</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:51</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.41</v>
+        <v>3.86</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>07/08/2023 20:42</t>
+          <t>07/08/2023 20:41</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.34</v>
+        <v>3.73</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:51</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>5.65</v>
+        <v>1.98</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>07/08/2023 20:42</t>
+          <t>07/08/2023 20:41</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>5.01</v>
+        <v>3.01</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:51</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-akhdoud/C0s5ED54/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-nassr/Y9r1Fgjb/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.16</v>
+        <v>13.51</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.11</v>
+        <v>12.1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:40</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>7.91</v>
+        <v>6.52</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>9.279999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>16.84</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>29.41</v>
+        <v>1.22</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:07</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.56</v>
+        <v>12.64</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.85</v>
+        <v>18.25</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.25</v>
+        <v>6.75</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.7</v>
+        <v>9.07</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.92</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.2</v>
+        <v>1.14</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
       <c r="J23" t="n">
-        <v>13.51</v>
+        <v>1.16</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>12.1</v>
+        <v>1.11</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:40</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6.52</v>
+        <v>7.91</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>6.94</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>16.84</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.22</v>
+        <v>29.41</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:07</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>12.64</v>
+        <v>1.56</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>18.25</v>
+        <v>1.85</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>6.75</v>
+        <v>4.25</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>9.07</v>
+        <v>3.7</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.21</v>
+        <v>4.92</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.14</v>
+        <v>4.2</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-khaleej/Gp4TGdIR/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.18</v>
+        <v>12.33</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.21</v>
+        <v>11.76</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:58</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>7.07</v>
+        <v>6.66</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>7.06</v>
+        <v>6.19</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>12.26</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>11.29</v>
+        <v>1.24</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
       <c r="J31" t="n">
-        <v>12.33</v>
+        <v>2.19</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>11.76</v>
+        <v>2.28</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>6.66</v>
+        <v>3.63</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>6.19</v>
+        <v>3.63</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:59</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.24</v>
+        <v>3.03</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>28/08/2023 19:43</t>
+          <t>28/08/2023 19:52</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-ittihad/lxsyDmHg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.19</v>
+        <v>1.18</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.28</v>
+        <v>1.21</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:58</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.63</v>
+        <v>7.07</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.63</v>
+        <v>7.06</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.1</v>
+        <v>12.26</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.03</v>
+        <v>11.29</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>28/08/2023 19:52</t>
+          <t>28/08/2023 19:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-riyadh/SMhSE9ns/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-ettifaq-fc/6DiWDT1m/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.39</v>
+        <v>2.13</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>2.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:34</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.14</v>
+        <v>3.54</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.69</v>
+        <v>3.67</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.68</v>
+        <v>3.28</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>7.34</v>
+        <v>3.5</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.13</v>
+        <v>1.39</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>1.35</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:34</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.54</v>
+        <v>5.14</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.67</v>
+        <v>5.69</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.28</v>
+        <v>6.68</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.5</v>
+        <v>7.34</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
         </is>
       </c>
     </row>
@@ -4253,15 +4253,15 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -4276,11 +4276,11 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.37</v>
+        <v>1.67</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -4292,11 +4292,11 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.48</v>
+        <v>3.84</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R42" t="n">
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.98</v>
+        <v>5.32</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.94</v>
+        <v>2.37</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.85</v>
+        <v>3.94</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>7</v>
+        <v>4.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.78</v>
+        <v>2.98</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>3</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Damac</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,15 +4652,15 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.94</v>
+        <v>4.85</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.84</v>
+        <v>3.76</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,15 +4668,15 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.19</v>
+        <v>7</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.32</v>
+        <v>3.78</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.83</v>
+        <v>6.23</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.72</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.57</v>
+        <v>4.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:54</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>6.23</v>
+        <v>3.83</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.05</v>
+        <v>4.92</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>8.609999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.57</v>
+        <v>6.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>1</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:38</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>11.38</v>
+        <v>4.56</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>11.29</v>
+        <v>5.34</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>21.56</v>
+        <v>4.75</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>19.58</v>
+        <v>6.72</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:53</t>
+          <t>20/10/2023 19:50</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:38</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.56</v>
+        <v>11.38</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>5.34</v>
+        <v>11.29</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.75</v>
+        <v>21.56</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>6.72</v>
+        <v>19.58</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:50</t>
+          <t>20/10/2023 19:53</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-abha/bRtVwxw7/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-khaleej/0jNPaJaQ/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:18</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>6.35</v>
+        <v>4.49</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>5.04</v>
+        <v>4.52</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:37</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>9.09</v>
+        <v>6.2</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>7.62</v>
+        <v>5.78</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:37</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-wehda/CUpZxdhD/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taee/2a9iew8s/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:18</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.49</v>
+        <v>6.35</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.52</v>
+        <v>5.04</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:37</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>6.2</v>
+        <v>9.09</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.78</v>
+        <v>7.62</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:37</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taee/2a9iew8s/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-wehda/CUpZxdhD/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>4.14</v>
+        <v>1.84</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.93</v>
+        <v>1.75</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.26</v>
+        <v>3.78</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.75</v>
+        <v>4.13</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.21</v>
+        <v>4.65</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 16:58</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.84</v>
+        <v>4.14</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,48 @@
         </is>
       </c>
       <c r="L96" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
         <v>1.75</v>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U96" t="inlineStr">
         <is>
           <t>27/10/2023 16:59</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="T96" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:58</t>
-        </is>
-      </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>3.77</v>
+        <v>5.59</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>4.27</v>
+        <v>6.97</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.63</v>
+        <v>4.98</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.04</v>
+        <v>5.6</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>1.87</v>
+        <v>1.49</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.76</v>
+        <v>1.37</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-shabab/tAraEIEJ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-nassr/ve12DxUP/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>1</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>3</v>
-      </c>
       <c r="J99" t="n">
-        <v>5.59</v>
+        <v>3.77</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>6.97</v>
+        <v>4.27</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4.98</v>
+        <v>3.63</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>5.6</v>
+        <v>4.04</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>1.49</v>
+        <v>1.87</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.37</v>
+        <v>1.76</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-nassr/ve12DxUP/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-shabab/tAraEIEJ/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.73</v>
+        <v>5.32</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.06</v>
+        <v>10.37</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:57</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.38</v>
+        <v>5.18</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.43</v>
+        <v>6.9</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:57</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.45</v>
+        <v>1.43</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.35</v>
+        <v>1.23</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:52</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-feiha/SKZk4YjC/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-hilal/0YXc2CLO/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>5.32</v>
+        <v>2.73</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>10.37</v>
+        <v>3.06</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:57</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>5.18</v>
+        <v>3.38</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>6.9</v>
+        <v>3.43</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:57</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>1.43</v>
+        <v>2.45</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>1.23</v>
+        <v>2.35</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:52</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-hilal/0YXc2CLO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-feiha/SKZk4YjC/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>3.61</v>
+        <v>1.96</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>3.28</v>
+        <v>2.12</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>09/11/2023 15:53</t>
+          <t>09/11/2023 15:48</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.85</v>
+        <v>3.46</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="R110" t="n">
-        <v>1.95</v>
+        <v>3.64</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.15</v>
+        <v>3.27</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>09/11/2023 15:53</t>
+          <t>09/11/2023 15:48</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-shabab/KxZgaq5p/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taee/WEHHIX55/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.96</v>
+        <v>3.61</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.12</v>
+        <v>3.28</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>09/11/2023 15:48</t>
+          <t>09/11/2023 15:53</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.46</v>
+        <v>3.85</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.64</v>
+        <v>1.95</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.27</v>
+        <v>2.15</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>09/11/2023 15:48</t>
+          <t>09/11/2023 15:53</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taee/WEHHIX55/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-shabab/KxZgaq5p/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>4.45</v>
+        <v>4.18</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>4.56</v>
+        <v>4.06</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.11</v>
+        <v>4.22</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.22</v>
+        <v>3.95</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-fateh/WCxbb3Kj/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-ahli-sc/vuLPGBzI/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>4.18</v>
+        <v>4.45</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>06/11/2023 03:42</t>
+          <t>05/11/2023 19:12</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>4.06</v>
+        <v>4.56</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="N113" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
         <v>4.22</v>
       </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>06/11/2023 03:42</t>
-        </is>
-      </c>
-      <c r="P113" t="n">
-        <v>3.95</v>
-      </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>06/11/2023 03:42</t>
+          <t>05/11/2023 19:12</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-ahli-sc/vuLPGBzI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-fateh/WCxbb3Kj/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.35</v>
+        <v>3.84</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.37</v>
+        <v>3.08</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>5.11</v>
+        <v>3.87</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.32</v>
+        <v>3.34</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>6.86</v>
+        <v>1.79</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>7.56</v>
+        <v>2.38</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>3.84</v>
+        <v>1.35</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.08</v>
+        <v>1.37</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.87</v>
+        <v>5.11</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.34</v>
+        <v>5.32</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>1.79</v>
+        <v>6.86</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.38</v>
+        <v>7.56</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.75</v>
+        <v>1.12</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,48 +11544,48 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>4.15</v>
+        <v>1.24</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
+          <t>24/11/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
           <t>24/11/2023 18:57</t>
         </is>
       </c>
-      <c r="N121" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O121" t="inlineStr">
+      <c r="R121" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="S121" t="inlineStr">
         <is>
           <t>17/11/2023 19:43</t>
         </is>
       </c>
-      <c r="P121" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="Q121" t="inlineStr">
-        <is>
-          <t>24/11/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R121" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>17/11/2023 19:43</t>
-        </is>
-      </c>
       <c r="T121" t="n">
-        <v>1.88</v>
+        <v>9.31</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>24/11/2023 18:53</t>
+          <t>24/11/2023 18:57</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-raed/trKlLQR3/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-akhdoud/pbBvBt4d/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>3</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
       <c r="J122" t="n">
-        <v>1.12</v>
+        <v>2.75</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.24</v>
+        <v>4.15</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>24/11/2023 18:55</t>
+          <t>24/11/2023 18:57</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>9.470000000000001</v>
+        <v>3.67</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>7.01</v>
+        <v>3.63</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>24/11/2023 18:57</t>
+          <t>24/11/2023 18:58</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>12.33</v>
+        <v>2.3</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>9.31</v>
+        <v>1.88</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>24/11/2023 18:57</t>
+          <t>24/11/2023 18:53</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-akhdoud/pbBvBt4d/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-raed/trKlLQR3/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>4.54</v>
+        <v>4.17</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>5.05</v>
+        <v>4.75</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.33</v>
+        <v>3.78</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-shabab/67CzCMlj/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-abha/EeIdJ4dG/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:34</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.99</v>
+        <v>3.77</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>4.11</v>
+        <v>3.72</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:34</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.17</v>
+        <v>3.53</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>3.48</v>
+        <v>3.47</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:17</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-feiha/ANB5HrRS/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-khaleej/O6PqM6Cc/</t>
         </is>
       </c>
     </row>
@@ -11981,71 +11981,71 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:34</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.77</v>
+        <v>3.99</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.72</v>
+        <v>4.11</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:34</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.53</v>
+        <v>3.17</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:17</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-khaleej/O6PqM6Cc/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-feiha/ANB5HrRS/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.17</v>
+        <v>4.54</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.9</v>
+        <v>3.84</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.75</v>
+        <v>5.05</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>3.78</v>
+        <v>3.33</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-abha/EeIdJ4dG/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-shabab/67CzCMlj/</t>
         </is>
       </c>
     </row>
@@ -12625,71 +12625,71 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
         <v>1</v>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Al Ettifaq</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
       <c r="J133" t="n">
-        <v>3.25</v>
+        <v>1.61</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>28/11/2023 11:42</t>
+          <t>25/11/2023 19:13</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>02/12/2023 15:57</t>
+          <t>02/12/2023 15:56</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.59</v>
+        <v>4.31</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>28/11/2023 11:42</t>
+          <t>25/11/2023 19:13</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.4</v>
+        <v>4.57</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>02/12/2023 15:57</t>
+          <t>02/12/2023 15:56</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.06</v>
+        <v>5.01</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>28/11/2023 11:42</t>
+          <t>25/11/2023 19:13</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.28</v>
+        <v>5.02</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>02/12/2023 15:57</t>
+          <t>02/12/2023 15:56</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-ettifaq-fc/06gRYqd3/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-taee/n3kNZPtc/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Al Taee</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
       <c r="J134" t="n">
-        <v>1.61</v>
+        <v>3.25</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>25/11/2023 19:13</t>
+          <t>28/11/2023 11:42</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.58</v>
+        <v>3.2</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>02/12/2023 15:56</t>
+          <t>02/12/2023 15:57</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.31</v>
+        <v>3.59</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>25/11/2023 19:13</t>
+          <t>28/11/2023 11:42</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.57</v>
+        <v>3.4</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>02/12/2023 15:56</t>
+          <t>02/12/2023 15:57</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>5.01</v>
+        <v>2.06</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>25/11/2023 19:13</t>
+          <t>28/11/2023 11:42</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>5.02</v>
+        <v>2.28</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>02/12/2023 15:56</t>
+          <t>02/12/2023 15:57</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-taee/n3kNZPtc/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-ettifaq-fc/06gRYqd3/</t>
         </is>
       </c>
     </row>
@@ -12966,6 +12966,1570 @@
       <c r="V136" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taawon/b1yEPuJk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45267.66666666666</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>07/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>07/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>07/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-fateh/zuEv4Ocr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45267.66666666666</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>07/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>07/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>07/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-ittihad/4K5e0tc7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45267.79166666666</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>07/12/2023 18:46</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>07/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>07/12/2023 18:46</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-ettifaq-fc/Gf9aa0CD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45268.66666666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:25</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-hilal/4dN89pzL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45268.66666666666</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>4</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-feiha/Ac6i1Ms1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45268.66666666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>3</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>01/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:34</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>01/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>01/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-abha/IamrOqkE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45268.79166666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>4</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-riyadh/IaRC84kR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>7</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-raed/W67m22Sf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45269.79166666666</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-akhdoud/EVCr3rDl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45274.66666666666</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hazem-rass/AcSMG1sl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45274.66666666666</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>11/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>11/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>11/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-taee/O0WQFLdf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45274.79166666666</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>4</v>
+      </c>
+      <c r="J148" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:32</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:32</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:32</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ahli-sc/dEUYDaR6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45275.66666666666</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-wehda/Oz1VCJtD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45275.66666666666</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:43</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:43</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:43</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-shabab/SYxIHsSs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45275.66666666666</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-damac/QPjjMNJQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>09/12/2023 07:03</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>09/12/2023 07:03</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>09/12/2023 07:03</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-khaleej/INVUEuC0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45276.79166666666</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:06</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:10</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:06</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:10</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:06</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:10</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taawon/djnnN34K/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
       <c r="J98" t="n">
-        <v>5.59</v>
+        <v>3.77</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>6.97</v>
+        <v>4.27</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.98</v>
+        <v>3.63</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>5.6</v>
+        <v>4.04</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>1.49</v>
+        <v>1.87</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>24/10/2023 22:01</t>
+          <t>25/10/2023 13:48</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.37</v>
+        <v>1.76</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-nassr/ve12DxUP/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-shabab/tAraEIEJ/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>3.77</v>
+        <v>5.59</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>4.27</v>
+        <v>6.97</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.63</v>
+        <v>4.98</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.04</v>
+        <v>5.6</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>1.87</v>
+        <v>1.49</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>25/10/2023 13:48</t>
+          <t>24/10/2023 22:01</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.76</v>
+        <v>1.37</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-shabab/tAraEIEJ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-nassr/ve12DxUP/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>4.18</v>
+        <v>4.45</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>06/11/2023 03:42</t>
+          <t>05/11/2023 19:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>4.06</v>
+        <v>4.56</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="N112" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
         <v>4.22</v>
       </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>06/11/2023 03:42</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
-        <v>3.95</v>
-      </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>06/11/2023 03:42</t>
+          <t>05/11/2023 19:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>09/11/2023 18:50</t>
+          <t>09/11/2023 18:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-ahli-sc/vuLPGBzI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-fateh/WCxbb3Kj/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>4.45</v>
+        <v>4.18</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>4.56</v>
+        <v>4.06</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.11</v>
+        <v>4.22</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>4.22</v>
+        <v>3.95</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 03:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>09/11/2023 18:58</t>
+          <t>09/11/2023 18:50</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-fateh/WCxbb3Kj/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-ahli-sc/vuLPGBzI/</t>
         </is>
       </c>
     </row>
@@ -11061,30 +11061,30 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.19</v>
+        <v>2.7</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.72</v>
+        <v>3.12</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -11092,15 +11092,15 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.47</v>
+        <v>3.21</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.09</v>
+        <v>3.33</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -11108,15 +11108,15 @@
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.06</v>
+        <v>2.57</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>4.49</v>
+        <v>2.36</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hazem-rass/AaT8Kgyg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ettifaq-fc/ddP4LZLn/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.7</v>
+        <v>2.19</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>3.12</v>
+        <v>1.72</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,15 +11184,15 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.33</v>
+        <v>4.09</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -11200,15 +11200,15 @@
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.57</v>
+        <v>3.06</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.36</v>
+        <v>4.49</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ettifaq-fc/ddP4LZLn/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hazem-rass/AaT8Kgyg/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,63 +11989,63 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.97</v>
+        <v>1.51</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>25/11/2023 18:34</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.99</v>
+        <v>4.54</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>4.11</v>
+        <v>3.84</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>25/11/2023 18:34</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.17</v>
+        <v>5.05</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>25/11/2023 18:17</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-feiha/ANB5HrRS/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-shabab/67CzCMlj/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1.51</v>
+        <v>1.97</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:34</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.54</v>
+        <v>3.99</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.84</v>
+        <v>4.11</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:34</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.05</v>
+        <v>3.17</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>3.33</v>
+        <v>3.48</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:17</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-shabab/67CzCMlj/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-feiha/ANB5HrRS/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
         <v>2</v>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Al Wehda</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
       <c r="J135" t="n">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,11 +12832,11 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.04</v>
+        <v>2.23</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>02/12/2023 18:58</t>
+          <t>02/12/2023 18:18</t>
         </is>
       </c>
       <c r="N135" t="n">
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>02/12/2023 18:58</t>
+          <t>02/12/2023 18:59</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.79</v>
+        <v>3.15</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.32</v>
+        <v>3.26</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>02/12/2023 18:58</t>
+          <t>02/12/2023 18:59</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-wehda/jenvWstM/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taawon/b1yEPuJk/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,11 +12924,11 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.23</v>
+        <v>3.04</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>02/12/2023 18:18</t>
+          <t>02/12/2023 18:58</t>
         </is>
       </c>
       <c r="N136" t="n">
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.45</v>
+        <v>3.52</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>02/12/2023 18:59</t>
+          <t>02/12/2023 18:58</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.15</v>
+        <v>2.79</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.26</v>
+        <v>2.32</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>02/12/2023 18:59</t>
+          <t>02/12/2023 18:58</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taawon/b1yEPuJk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-wehda/jenvWstM/</t>
         </is>
       </c>
     </row>
@@ -13269,71 +13269,71 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G140" t="n">
+        <v>3</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
         <v>1</v>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Al Hilal</t>
-        </is>
-      </c>
-      <c r="I140" t="n">
-        <v>2</v>
-      </c>
       <c r="J140" t="n">
-        <v>12.91</v>
+        <v>1.87</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>03/12/2023 18:12</t>
+          <t>01/12/2023 05:42</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>20.78</v>
+        <v>1.78</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
+          <t>08/12/2023 15:34</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>01/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
           <t>08/12/2023 15:59</t>
         </is>
       </c>
-      <c r="N140" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>03/12/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P140" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>08/12/2023 15:59</t>
-        </is>
-      </c>
       <c r="R140" t="n">
-        <v>1.1</v>
+        <v>3.68</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>03/12/2023 18:12</t>
+          <t>01/12/2023 05:42</t>
         </is>
       </c>
       <c r="T140" t="n">
-        <v>1.1</v>
+        <v>3.94</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>08/12/2023 15:25</t>
+          <t>08/12/2023 15:12</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-hilal/4dN89pzL/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-abha/IamrOqkE/</t>
         </is>
       </c>
     </row>
@@ -13453,46 +13453,46 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>1.87</v>
+        <v>12.91</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>01/12/2023 05:42</t>
+          <t>03/12/2023 18:12</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.78</v>
+        <v>20.78</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>08/12/2023 15:34</t>
+          <t>08/12/2023 15:59</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.69</v>
+        <v>9.43</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>01/12/2023 05:42</t>
+          <t>03/12/2023 18:12</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>4.22</v>
+        <v>11.18</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -13500,24 +13500,24 @@
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.68</v>
+        <v>1.1</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>01/12/2023 05:42</t>
+          <t>03/12/2023 18:12</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>3.94</v>
+        <v>1.1</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>08/12/2023 15:12</t>
+          <t>08/12/2023 15:25</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-abha/IamrOqkE/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-hilal/4dN89pzL/</t>
         </is>
       </c>
     </row>
@@ -14097,71 +14097,71 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>1.17</v>
+        <v>2.83</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>09/12/2023 19:13</t>
+          <t>08/12/2023 21:43</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.19</v>
+        <v>2.45</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>15/12/2023 15:55</t>
+          <t>15/12/2023 15:53</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>7.44</v>
+        <v>3.49</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>09/12/2023 19:13</t>
+          <t>08/12/2023 21:43</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>7.94</v>
+        <v>3.72</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>15/12/2023 15:55</t>
+          <t>15/12/2023 15:57</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>10.48</v>
+        <v>2.3</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>09/12/2023 19:13</t>
+          <t>08/12/2023 21:43</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>11.76</v>
+        <v>2.72</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>15/12/2023 15:55</t>
+          <t>15/12/2023 15:53</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-wehda/Oz1VCJtD/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-shabab/SYxIHsSs/</t>
         </is>
       </c>
     </row>
@@ -14189,71 +14189,71 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.83</v>
+        <v>1.17</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>08/12/2023 21:43</t>
+          <t>09/12/2023 19:13</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.45</v>
+        <v>1.19</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>15/12/2023 15:53</t>
+          <t>15/12/2023 15:55</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.49</v>
+        <v>7.44</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>08/12/2023 21:43</t>
+          <t>09/12/2023 19:13</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.72</v>
+        <v>7.94</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>15/12/2023 15:57</t>
+          <t>15/12/2023 15:55</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.3</v>
+        <v>10.48</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>08/12/2023 21:43</t>
+          <t>09/12/2023 19:13</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.72</v>
+        <v>11.76</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>15/12/2023 15:53</t>
+          <t>15/12/2023 15:55</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-shabab/SYxIHsSs/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-wehda/Oz1VCJtD/</t>
         </is>
       </c>
     </row>
@@ -14530,6 +14530,282 @@
       <c r="V153" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taawon/djnnN34K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45281.66666666666</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>3</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-feiha/2RaZBwdJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45281.66666666666</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>3</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-taee/vBc6EWHH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45281.79166666666</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>7</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-abha/AV5kIEIh/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V156"/>
+  <dimension ref="A1:V159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>4.56</v>
+        <v>5.36</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>15.99</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.11</v>
+        <v>4.35</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>8.289999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:09</t>
+          <t>14/08/2023 16:55</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>5.36</v>
+        <v>4.56</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>15.99</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.35</v>
+        <v>4.11</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:55</t>
+          <t>14/08/2023 16:09</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
       <c r="J21" t="n">
-        <v>13.51</v>
+        <v>1.16</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>12.1</v>
+        <v>1.11</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:40</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>6.52</v>
+        <v>7.91</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>6.94</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>16.84</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.22</v>
+        <v>29.41</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:07</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>12.64</v>
+        <v>13.51</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>18.25</v>
+        <v>12.1</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>6.75</v>
+        <v>6.52</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,11 +2452,11 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>9.07</v>
+        <v>6.94</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R22" t="n">
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:07</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.16</v>
+        <v>12.64</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.11</v>
+        <v>18.25</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:40</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>7.91</v>
+        <v>6.75</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>9.279999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>16.84</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>29.41</v>
+        <v>1.14</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:42</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>6.07</v>
+        <v>5.14</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>8.74</v>
+        <v>5.69</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>9.289999999999999</v>
+        <v>6.68</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>15.83</v>
+        <v>7.34</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.13</v>
+        <v>1.26</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.05</v>
+        <v>1.14</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:34</t>
+          <t>29/08/2023 19:42</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.54</v>
+        <v>6.07</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.67</v>
+        <v>8.74</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.28</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.5</v>
+        <v>15.83</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.39</v>
+        <v>2.13</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.35</v>
+        <v>2.05</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:34</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>5.14</v>
+        <v>3.54</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>5.69</v>
+        <v>3.67</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>6.68</v>
+        <v>3.28</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>7.34</v>
+        <v>3.5</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
         </is>
       </c>
     </row>
@@ -3885,34 +3885,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3920,36 +3920,36 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.24</v>
+        <v>3.37</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.66</v>
+        <v>4.13</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
         </is>
       </c>
     </row>
@@ -3977,34 +3977,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -4012,36 +4012,36 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.13</v>
+        <v>3.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.94</v>
+        <v>3.47</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.51</v>
+        <v>2.76</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.47</v>
+        <v>3.94</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.76</v>
+        <v>2.51</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.83</v>
+        <v>11.14</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.67</v>
+        <v>17.04</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.94</v>
+        <v>6.35</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.84</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.19</v>
+        <v>1.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>5.32</v>
+        <v>1.14</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 18:32</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.83</v>
+        <v>5.41</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.37</v>
+        <v>6.86</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.94</v>
+        <v>4.35</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.48</v>
+        <v>5.34</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.19</v>
+        <v>1.6</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.98</v>
+        <v>1.39</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
       <c r="J44" t="n">
-        <v>11.14</v>
+        <v>1.83</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>17.04</v>
+        <v>1.67</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>6.35</v>
+        <v>3.94</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>8.779999999999999</v>
+        <v>3.84</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.26</v>
+        <v>4.19</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.14</v>
+        <v>5.32</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 18:32</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>5.41</v>
+        <v>1.44</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6.86</v>
+        <v>1.94</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.35</v>
+        <v>4.85</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>5.34</v>
+        <v>3.76</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.39</v>
+        <v>3.78</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.94</v>
+        <v>2.37</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.85</v>
+        <v>3.94</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7</v>
+        <v>4.19</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.78</v>
+        <v>2.98</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.12</v>
+        <v>4.15</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.74</v>
+        <v>4.55</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.95</v>
+        <v>5.75</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.57</v>
+        <v>6.56</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.47</v>
+        <v>2.01</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>6.56</v>
+        <v>3.57</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:54</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>6.23</v>
+        <v>3.83</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.05</v>
+        <v>4.92</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>8.609999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.57</v>
+        <v>6.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:54</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.83</v>
+        <v>6.23</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.72</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.57</v>
+        <v>4.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:18</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.49</v>
+        <v>6.35</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4.52</v>
+        <v>5.04</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:37</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>6.2</v>
+        <v>9.09</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>5.78</v>
+        <v>7.62</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>21/10/2023 19:59</t>
+          <t>21/10/2023 19:37</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taee/2a9iew8s/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-wehda/CUpZxdhD/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:18</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>6.35</v>
+        <v>4.49</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>5.04</v>
+        <v>4.52</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:37</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>9.09</v>
+        <v>6.2</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>7.62</v>
+        <v>5.78</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>21/10/2023 19:37</t>
+          <t>21/10/2023 19:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-wehda/CUpZxdhD/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taee/2a9iew8s/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.84</v>
+        <v>4.14</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
         <v>1.75</v>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U95" t="inlineStr">
         <is>
           <t>27/10/2023 16:59</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>24/10/2023 22:01</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>27/10/2023 16:58</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>4.14</v>
+        <v>1.84</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.93</v>
+        <v>1.75</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.26</v>
+        <v>3.78</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.75</v>
+        <v>4.13</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.21</v>
+        <v>4.65</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 16:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-fateh/lGeDjFMC/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-riyadh/pxvV8dxs/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>5.32</v>
+        <v>2.73</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>10.37</v>
+        <v>3.06</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:57</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>5.18</v>
+        <v>3.38</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>6.9</v>
+        <v>3.43</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:57</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>1.43</v>
+        <v>2.45</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>1.23</v>
+        <v>2.35</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:52</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-hilal/0YXc2CLO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-feiha/SKZk4YjC/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.73</v>
+        <v>5.32</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.06</v>
+        <v>10.37</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:57</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.38</v>
+        <v>5.18</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.43</v>
+        <v>6.9</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:57</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.45</v>
+        <v>1.43</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.35</v>
+        <v>1.23</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:52</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-feiha/SKZk4YjC/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-hilal/0YXc2CLO/</t>
         </is>
       </c>
     </row>
@@ -11061,30 +11061,30 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2.7</v>
+        <v>2.19</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.12</v>
+        <v>1.72</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -11092,15 +11092,15 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.33</v>
+        <v>4.09</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -11108,15 +11108,15 @@
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.57</v>
+        <v>3.06</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>04/11/2023 19:13</t>
+          <t>08/11/2023 06:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.36</v>
+        <v>4.49</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ettifaq-fc/ddP4LZLn/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hazem-rass/AaT8Kgyg/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.19</v>
+        <v>2.7</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.72</v>
+        <v>3.12</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,15 +11184,15 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.47</v>
+        <v>3.21</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.09</v>
+        <v>3.33</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -11200,15 +11200,15 @@
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.06</v>
+        <v>2.57</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>08/11/2023 06:12</t>
+          <t>04/11/2023 19:13</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.49</v>
+        <v>2.36</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-hazem-rass/AaT8Kgyg/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-ettifaq-fc/ddP4LZLn/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>3.84</v>
+        <v>1.35</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.08</v>
+        <v>1.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.87</v>
+        <v>5.11</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.34</v>
+        <v>5.32</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>1.79</v>
+        <v>6.86</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.38</v>
+        <v>7.56</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.35</v>
+        <v>3.84</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.37</v>
+        <v>3.08</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>5.11</v>
+        <v>3.87</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>5.32</v>
+        <v>3.34</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>6.86</v>
+        <v>1.79</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>7.56</v>
+        <v>2.38</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G121" t="n">
+        <v>4</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
         <v>3</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
       <c r="J121" t="n">
-        <v>1.12</v>
+        <v>2.75</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.24</v>
+        <v>4.15</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>24/11/2023 18:55</t>
+          <t>24/11/2023 18:57</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>9.470000000000001</v>
+        <v>3.67</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>7.01</v>
+        <v>3.63</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>24/11/2023 18:57</t>
+          <t>24/11/2023 18:58</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>12.33</v>
+        <v>2.3</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>9.31</v>
+        <v>1.88</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>24/11/2023 18:57</t>
+          <t>24/11/2023 18:53</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-akhdoud/pbBvBt4d/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-raed/trKlLQR3/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2.75</v>
+        <v>1.12</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,48 +11636,48 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>4.15</v>
+        <v>1.24</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
+          <t>24/11/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
           <t>24/11/2023 18:57</t>
         </is>
       </c>
-      <c r="N122" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O122" t="inlineStr">
+      <c r="R122" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="S122" t="inlineStr">
         <is>
           <t>17/11/2023 19:43</t>
         </is>
       </c>
-      <c r="P122" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>24/11/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R122" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>17/11/2023 19:43</t>
-        </is>
-      </c>
       <c r="T122" t="n">
-        <v>1.88</v>
+        <v>9.31</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>24/11/2023 18:53</t>
+          <t>24/11/2023 18:57</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-raed/trKlLQR3/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-akhdoud/pbBvBt4d/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>4.17</v>
+        <v>4.54</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.9</v>
+        <v>3.84</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>4.75</v>
+        <v>5.05</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.78</v>
+        <v>3.33</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-abha/EeIdJ4dG/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-shabab/67CzCMlj/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:34</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.77</v>
+        <v>3.99</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.72</v>
+        <v>4.11</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:34</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.53</v>
+        <v>3.17</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:17</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-khaleej/O6PqM6Cc/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-feiha/ANB5HrRS/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1.51</v>
+        <v>1.9</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>4.54</v>
+        <v>3.77</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.84</v>
+        <v>3.72</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         </is>
       </c>
       <c r="R126" t="n">
-        <v>5.05</v>
+        <v>3.53</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.33</v>
+        <v>3.47</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-shabab/67CzCMlj/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-khaleej/O6PqM6Cc/</t>
         </is>
       </c>
     </row>
@@ -12073,71 +12073,71 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>25/11/2023 18:34</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.99</v>
+        <v>4.17</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>25/11/2023 18:34</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>3.17</v>
+        <v>4.75</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>3.48</v>
+        <v>3.78</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>25/11/2023 18:17</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-feiha/ANB5HrRS/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-abha/EeIdJ4dG/</t>
         </is>
       </c>
     </row>
@@ -12625,71 +12625,71 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Al Taee</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
       <c r="J133" t="n">
-        <v>1.61</v>
+        <v>3.25</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>25/11/2023 19:13</t>
+          <t>28/11/2023 11:42</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.58</v>
+        <v>3.2</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>02/12/2023 15:56</t>
+          <t>02/12/2023 15:57</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>4.31</v>
+        <v>3.59</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>25/11/2023 19:13</t>
+          <t>28/11/2023 11:42</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.57</v>
+        <v>3.4</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>02/12/2023 15:56</t>
+          <t>02/12/2023 15:57</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>5.01</v>
+        <v>2.06</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>25/11/2023 19:13</t>
+          <t>28/11/2023 11:42</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.02</v>
+        <v>2.28</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>02/12/2023 15:56</t>
+          <t>02/12/2023 15:57</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-taee/n3kNZPtc/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-ettifaq-fc/06gRYqd3/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
         <v>1</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Al Ettifaq</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
       <c r="J134" t="n">
-        <v>3.25</v>
+        <v>1.61</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>28/11/2023 11:42</t>
+          <t>25/11/2023 19:13</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>02/12/2023 15:57</t>
+          <t>02/12/2023 15:56</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.59</v>
+        <v>4.31</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>28/11/2023 11:42</t>
+          <t>25/11/2023 19:13</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.4</v>
+        <v>4.57</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>02/12/2023 15:57</t>
+          <t>02/12/2023 15:56</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.06</v>
+        <v>5.01</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>28/11/2023 11:42</t>
+          <t>25/11/2023 19:13</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>2.28</v>
+        <v>5.02</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>02/12/2023 15:57</t>
+          <t>02/12/2023 15:56</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-ettifaq-fc/06gRYqd3/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-taee/n3kNZPtc/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,11 +12832,11 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.23</v>
+        <v>3.04</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>02/12/2023 18:18</t>
+          <t>02/12/2023 18:58</t>
         </is>
       </c>
       <c r="N135" t="n">
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.45</v>
+        <v>3.52</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>02/12/2023 18:59</t>
+          <t>02/12/2023 18:58</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.15</v>
+        <v>2.79</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.26</v>
+        <v>2.32</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>02/12/2023 18:59</t>
+          <t>02/12/2023 18:58</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taawon/b1yEPuJk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-wehda/jenvWstM/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>2</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Al Wehda</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
       <c r="J136" t="n">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,11 +12924,11 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.04</v>
+        <v>2.23</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>02/12/2023 18:58</t>
+          <t>02/12/2023 18:18</t>
         </is>
       </c>
       <c r="N136" t="n">
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>02/12/2023 18:58</t>
+          <t>02/12/2023 18:59</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.79</v>
+        <v>3.15</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.32</v>
+        <v>3.26</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>02/12/2023 18:58</t>
+          <t>02/12/2023 18:59</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-wehda/jenvWstM/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taawon/b1yEPuJk/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="n">
-        <v>1.81</v>
+        <v>12.91</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.76</v>
+        <v>20.78</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>08/12/2023 15:51</t>
+          <t>08/12/2023 15:59</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.7</v>
+        <v>9.43</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.8</v>
+        <v>11.18</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>08/12/2023 15:51</t>
+          <t>08/12/2023 15:59</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.91</v>
+        <v>1.1</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>4.59</v>
+        <v>1.1</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>08/12/2023 15:51</t>
+          <t>08/12/2023 15:25</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-feiha/Ac6i1Ms1/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-hilal/4dN89pzL/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G142" t="n">
+        <v>4</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Al Hilal</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>2</v>
-      </c>
       <c r="J142" t="n">
-        <v>12.91</v>
+        <v>1.81</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>20.78</v>
+        <v>1.76</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>08/12/2023 15:59</t>
+          <t>08/12/2023 15:51</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>9.43</v>
+        <v>3.7</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>11.18</v>
+        <v>3.8</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>08/12/2023 15:59</t>
+          <t>08/12/2023 15:51</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>1.1</v>
+        <v>3.91</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>1.1</v>
+        <v>4.59</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>08/12/2023 15:25</t>
+          <t>08/12/2023 15:51</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-hilal/4dN89pzL/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-feiha/Ac6i1Ms1/</t>
         </is>
       </c>
     </row>
@@ -14806,6 +14806,282 @@
       <c r="V156" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-abha/AV5kIEIh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45282.66666666666</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:25</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-shabab/E3CtKzlt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45282.66666666666</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>4</v>
+      </c>
+      <c r="J158" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-ahli-sc/Ie9cGhm5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45282.66666666666</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>3</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-ettifaq-fc/lM4gHYXb/</t>
         </is>
       </c>
     </row>

--- a/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
+++ b/2023/saudi-arabia_saudi-professional-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V159"/>
+  <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>5.36</v>
+        <v>4.56</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>15.99</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.35</v>
+        <v>4.11</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:58</t>
+          <t>14/08/2023 16:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>14/08/2023 16:55</t>
+          <t>14/08/2023 16:09</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>4.56</v>
+        <v>5.36</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>15.99</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.11</v>
+        <v>4.35</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>8.289999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:57</t>
+          <t>14/08/2023 16:58</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>14/08/2023 16:09</t>
+          <t>14/08/2023 16:55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-ittihad/jogdGZzh/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/abha-al-hilal/xrkhHFLo/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:46</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.11</v>
+        <v>6.31</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.82</v>
+        <v>6.77</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 20:00</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>11.73</v>
+        <v>12.27</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>11.15</v>
+        <v>15.94</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 20:00</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-taee/QeBGJbY8/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-feiha/n5CCKvJ2/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:46</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.31</v>
+        <v>6.11</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.77</v>
+        <v>6.82</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 20:00</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>12.27</v>
+        <v>11.73</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>15.94</v>
+        <v>11.15</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 20:00</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hilal-al-feiha/n5CCKvJ2/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-taee/QeBGJbY8/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.16</v>
+        <v>13.51</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.11</v>
+        <v>12.1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:40</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>7.91</v>
+        <v>6.52</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>9.279999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:54</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>16.84</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>29.41</v>
+        <v>1.22</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>24/08/2023 19:52</t>
+          <t>24/08/2023 19:07</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>13.51</v>
+        <v>12.64</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>12.1</v>
+        <v>18.25</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>6.52</v>
+        <v>6.75</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,11 +2452,11 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>6.94</v>
+        <v>9.07</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:54</t>
+          <t>24/08/2023 19:59</t>
         </is>
       </c>
       <c r="R22" t="n">
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>24/08/2023 19:07</t>
+          <t>24/08/2023 19:51</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-ittihad/zVp0Bztk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Al Hilal</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
       <c r="J23" t="n">
-        <v>12.64</v>
+        <v>1.16</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>18.25</v>
+        <v>1.11</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:40</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6.75</v>
+        <v>7.91</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>9.07</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:59</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>16.84</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.14</v>
+        <v>29.41</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>24/08/2023 19:51</t>
+          <t>24/08/2023 19:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-hilal/MN4PHx3L/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-akhdoud/IgjeCGQr/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.74</v>
+        <v>3.21</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.94</v>
+        <v>3.85</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>29/08/2023 16:52</t>
+          <t>29/08/2023 16:53</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.62</v>
+        <v>3.95</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.52</v>
+        <v>2.21</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.34</v>
+        <v>1.87</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>29/08/2023 16:52</t>
+          <t>29/08/2023 16:56</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-fateh/d2pqBRo6/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-taawon/2uouC7Wa/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.21</v>
+        <v>2.74</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.85</v>
+        <v>2.94</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>29/08/2023 16:53</t>
+          <t>29/08/2023 16:52</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.95</v>
+        <v>3.62</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.21</v>
+        <v>2.52</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>29/08/2023 16:56</t>
+          <t>29/08/2023 16:52</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-taawon/2uouC7Wa/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-fateh/d2pqBRo6/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>5.14</v>
+        <v>6.07</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.69</v>
+        <v>8.74</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>6.68</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>7.34</v>
+        <v>15.83</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>29/08/2023 19:59</t>
+          <t>29/08/2023 19:52</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.26</v>
+        <v>2.13</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.14</v>
+        <v>2.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:42</t>
+          <t>29/08/2023 19:34</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>6.07</v>
+        <v>3.54</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>8.74</v>
+        <v>3.67</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>9.289999999999999</v>
+        <v>3.28</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>27/08/2023 10:51</t>
+          <t>27/08/2023 10:52</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>15.83</v>
+        <v>3.5</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/08/2023 19:52</t>
+          <t>29/08/2023 19:54</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-taee/G40p95GI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.13</v>
+        <v>1.39</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>1.35</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:34</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.54</v>
+        <v>5.14</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.67</v>
+        <v>5.69</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.28</v>
+        <v>6.68</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>27/08/2023 10:52</t>
+          <t>27/08/2023 10:51</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.5</v>
+        <v>7.34</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/08/2023 19:54</t>
+          <t>29/08/2023 19:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-hazem-rass/zgqmAo1C/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-shabab/feal8PVO/</t>
         </is>
       </c>
     </row>
@@ -3885,34 +3885,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3920,36 +3920,36 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.13</v>
+        <v>3.66</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>01/09/2023 16:52</t>
+          <t>01/09/2023 16:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
         </is>
       </c>
     </row>
@@ -3977,34 +3977,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -4012,36 +4012,36 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.24</v>
+        <v>3.37</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.66</v>
+        <v>4.13</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>01/09/2023 16:57</t>
+          <t>01/09/2023 16:52</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-abha/pKvbSSGt/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-raed/8bmWW88P/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.47</v>
+        <v>3.94</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>28/08/2023 22:16</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.76</v>
+        <v>2.51</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 19:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.94</v>
+        <v>3.47</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>28/08/2023 22:16</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.51</v>
+        <v>2.76</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>01/09/2023 19:58</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-hilal/6ZS6Q6og/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-al-akhdoud/SrU2RnWn/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Al Nassr</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
       <c r="J42" t="n">
-        <v>11.14</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>17.04</v>
+        <v>1.67</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>6.35</v>
+        <v>3.94</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>8.779999999999999</v>
+        <v>3.84</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.26</v>
+        <v>4.19</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.14</v>
+        <v>5.32</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 18:32</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>5.41</v>
+        <v>1.83</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6.86</v>
+        <v>2.37</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.35</v>
+        <v>3.94</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>5.34</v>
+        <v>3.48</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.6</v>
+        <v>4.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 20:01</t>
+          <t>29/08/2023 17:01</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 19:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.83</v>
+        <v>11.14</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.67</v>
+        <v>17.04</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.94</v>
+        <v>6.35</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.84</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.19</v>
+        <v>1.26</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.32</v>
+        <v>1.14</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 18:32</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-damac/z9XAPQ0a/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-hazem-rass-al-nassr/f9vNMOpI/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.44</v>
+        <v>5.41</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.94</v>
+        <v>6.86</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.85</v>
+        <v>4.35</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.76</v>
+        <v>5.34</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.78</v>
+        <v>1.39</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 19:51</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-ahli-sc/EaWEOpG5/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.37</v>
+        <v>1.94</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.94</v>
+        <v>4.85</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.48</v>
+        <v>3.76</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.19</v>
+        <v>7</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>29/08/2023 17:01</t>
+          <t>29/08/2023 20:01</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.98</v>
+        <v>3.78</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>02/09/2023 19:59</t>
+          <t>02/09/2023 19:51</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-wehda/lWwRLr0O/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-khaleej/dOLJN4VB/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.47</v>
+        <v>2.01</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>6.56</v>
+        <v>3.57</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>21/09/2023 16:56</t>
+          <t>21/09/2023 16:51</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.12</v>
+        <v>4.15</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.74</v>
+        <v>4.55</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.95</v>
+        <v>5.75</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.57</v>
+        <v>6.56</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>21/09/2023 16:51</t>
+          <t>21/09/2023 16:56</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-raed/tUvyUuho/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-taee/jaMRj3ab/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.83</v>
+        <v>6.23</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.72</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>19/09/2023 19:38</t>
+          <t>19/09/2023 19:37</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.57</v>
+        <v>4.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>21/09/2023 19:53</t>
+          <t>21/09/2023 19:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:54</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>6.23</v>
+        <v>3.83</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.05</v>
+        <v>4.92</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>8.609999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/09/2023 19:37</t>
+          <t>19/09/2023 19:38</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.57</v>
+        <v>6.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/09/2023 19:55</t>
+          <t>21/09/2023 19:53</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-fateh/YNRMiqph/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-hazem-rass/fXSIhPUo/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,22 +8033,22 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>3.22</v>
+        <v>4.56</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.86</v>
+        <v>4.61</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.32</v>
+        <v>4.09</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.49</v>
+        <v>4.24</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/10/2023 16:59</t>
+          <t>20/10/2023 16:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>15/10/2023 17:20</t>
+          <t>15/10/2023 12:47</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/10/2023 16:59</t>
+          <t>20/10/2023 16:51</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-feiha/EZOH1uVD/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-ittihad/44sRvIN0/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,22 +8125,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>4.56</v>
+        <v>3.22</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4.61</v>
+        <v>2.86</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,40 +8148,40 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.09</v>
+        <v>3.32</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.24</v>
+        <v>3.49</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/10/2023 16:58</t>
+          <t>20/10/2023 16:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.63</v>
+        <v>2.25</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>15/10/2023 12:47</t>
+          <t>15/10/2023 17:20</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.68</v>
+        <v>2.45</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>20/10/2023 16:51</t>
+          <t>20/10/2023 16:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-ittihad/44sRvIN0/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-akhdoud-al-feiha/EZOH1uVD/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>3.53</v>
+        <v>1.88</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.5</v>
+        <v>1.84</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:56</t>
+          <t>26/10/2023 17:00</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>3.92</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.04</v>
+        <v>3.99</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>26/10/2023 16:55</t>
+          <t>26/10/2023 16:50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:01</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>26/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>2</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K93" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>24/10/2023 21:01</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>26/10/2023 16:50</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
-      <c r="P93" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>26/10/2023 17:00</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:01</t>
-        </is>
-      </c>
       <c r="T93" t="n">
-        <v>3.99</v>
+        <v>2.04</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 16:50</t>
+          <t>26/10/2023 16:55</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-al-akhdoud/S6fHkZyJ/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-khaleej-al-taawon/Wv18ie76/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.73</v>
+        <v>5.32</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.06</v>
+        <v>10.37</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:57</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.38</v>
+        <v>5.18</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.43</v>
+        <v>6.9</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:57</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.45</v>
+        <v>1.43</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.35</v>
+        <v>1.23</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>03/11/2023 15:55</t>
+          <t>03/11/2023 15:52</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-feiha/SKZk4YjC/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-hilal/0YXc2CLO/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>5.32</v>
+        <v>2.73</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>10.37</v>
+        <v>3.06</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:57</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>5.18</v>
+        <v>3.38</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>6.9</v>
+        <v>3.43</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:57</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>1.43</v>
+        <v>2.45</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>1.23</v>
+        <v>2.35</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>03/11/2023 15:52</t>
+          <t>03/11/2023 15:55</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-hilal/0YXc2CLO/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-feiha/SKZk4YjC/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.35</v>
+        <v>3.84</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.37</v>
+        <v>3.08</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>5.11</v>
+        <v>3.87</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.32</v>
+        <v>3.34</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>6.86</v>
+        <v>1.79</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>7.56</v>
+        <v>2.38</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>24/11/2023 15:54</t>
+          <t>24/11/2023 15:50</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>3.84</v>
+        <v>1.35</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.08</v>
+        <v>1.37</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.87</v>
+        <v>5.11</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.34</v>
+        <v>5.32</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>1.79</v>
+        <v>6.86</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.38</v>
+        <v>7.56</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>24/11/2023 15:50</t>
+          <t>24/11/2023 15:54</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-ittihad/KYIhKpsA/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-riyadh/SbM0IOBM/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.75</v>
+        <v>1.12</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,48 +11544,48 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>4.15</v>
+        <v>1.24</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
+          <t>24/11/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
           <t>24/11/2023 18:57</t>
         </is>
       </c>
-      <c r="N121" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O121" t="inlineStr">
+      <c r="R121" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="S121" t="inlineStr">
         <is>
           <t>17/11/2023 19:43</t>
         </is>
       </c>
-      <c r="P121" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="Q121" t="inlineStr">
-        <is>
-          <t>24/11/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R121" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>17/11/2023 19:43</t>
-        </is>
-      </c>
       <c r="T121" t="n">
-        <v>1.88</v>
+        <v>9.31</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>24/11/2023 18:53</t>
+          <t>24/11/2023 18:57</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-raed/trKlLQR3/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-akhdoud/pbBvBt4d/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>3</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
       <c r="J122" t="n">
-        <v>1.12</v>
+        <v>2.75</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.24</v>
+        <v>4.15</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>24/11/2023 18:55</t>
+          <t>24/11/2023 18:57</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>9.470000000000001</v>
+        <v>3.67</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>7.01</v>
+        <v>3.63</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>24/11/2023 18:57</t>
+          <t>24/11/2023 18:58</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>12.33</v>
+        <v>2.3</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>9.31</v>
+        <v>1.88</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>24/11/2023 18:57</t>
+          <t>24/11/2023 18:53</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-akhdoud/pbBvBt4d/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-raed/trKlLQR3/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1.51</v>
+        <v>1.9</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>4.54</v>
+        <v>3.77</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.84</v>
+        <v>3.72</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>5.05</v>
+        <v>3.53</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.33</v>
+        <v>3.47</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-shabab/67CzCMlj/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-khaleej/O6PqM6Cc/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:34</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.99</v>
+        <v>4.17</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:34</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.17</v>
+        <v>4.75</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>18/11/2023 18:13</t>
+          <t>18/11/2023 19:43</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>3.48</v>
+        <v>3.78</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>25/11/2023 18:17</t>
+          <t>25/11/2023 18:59</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-feiha/ANB5HrRS/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-abha/EeIdJ4dG/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.9</v>
+        <v>1.51</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.77</v>
+        <v>4.54</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.72</v>
+        <v>3.84</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.53</v>
+        <v>5.05</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-khaleej/O6PqM6Cc/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-shabab/67CzCMlj/</t>
         </is>
       </c>
     </row>
@@ -12073,71 +12073,71 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1.59</v>
+        <v>1.97</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:34</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.17</v>
+        <v>3.99</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.9</v>
+        <v>4.11</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:34</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.75</v>
+        <v>3.17</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>18/11/2023 19:43</t>
+          <t>18/11/2023 18:13</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>3.78</v>
+        <v>3.48</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>25/11/2023 18:59</t>
+          <t>25/11/2023 18:17</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/damac-abha/EeIdJ4dG/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-feiha/ANB5HrRS/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
         <v>2</v>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Al Wehda</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
       <c r="J135" t="n">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,11 +12832,11 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.04</v>
+        <v>2.23</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>02/12/2023 18:58</t>
+          <t>02/12/2023 18:18</t>
         </is>
       </c>
       <c r="N135" t="n">
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>02/12/2023 18:58</t>
+          <t>02/12/2023 18:59</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.79</v>
+        <v>3.15</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.32</v>
+        <v>3.26</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>02/12/2023 18:58</t>
+          <t>02/12/2023 18:59</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-wehda/jenvWstM/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taawon/b1yEPuJk/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,11 +12924,11 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.23</v>
+        <v>3.04</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>02/12/2023 18:18</t>
+          <t>02/12/2023 18:58</t>
         </is>
       </c>
       <c r="N136" t="n">
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.45</v>
+        <v>3.52</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>02/12/2023 18:59</t>
+          <t>02/12/2023 18:58</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.15</v>
+        <v>2.79</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.26</v>
+        <v>2.32</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>02/12/2023 18:59</t>
+          <t>02/12/2023 18:58</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-taawon/b1yEPuJk/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-al-wehda/jenvWstM/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G141" t="n">
+        <v>4</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
         <v>1</v>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Al Hilal</t>
-        </is>
-      </c>
-      <c r="I141" t="n">
-        <v>2</v>
-      </c>
       <c r="J141" t="n">
-        <v>12.91</v>
+        <v>1.81</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>20.78</v>
+        <v>1.76</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>08/12/2023 15:59</t>
+          <t>08/12/2023 15:51</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>9.43</v>
+        <v>3.7</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>11.18</v>
+        <v>3.8</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>08/12/2023 15:59</t>
+          <t>08/12/2023 15:51</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>1.1</v>
+        <v>3.91</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>1.1</v>
+        <v>4.59</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>08/12/2023 15:25</t>
+          <t>08/12/2023 15:51</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-hilal/4dN89pzL/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-feiha/Ac6i1Ms1/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>1.81</v>
+        <v>12.91</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.76</v>
+        <v>20.78</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>08/12/2023 15:51</t>
+          <t>08/12/2023 15:59</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.7</v>
+        <v>9.43</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.8</v>
+        <v>11.18</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>08/12/2023 15:51</t>
+          <t>08/12/2023 15:59</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.91</v>
+        <v>1.1</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.59</v>
+        <v>1.1</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>08/12/2023 15:51</t>
+          <t>08/12/2023 15:25</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-feiha/Ac6i1Ms1/</t>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taee-al-hilal/4dN89pzL/</t>
         </is>
       </c>
     </row>
@@ -15082,6 +15082,1110 @@
       <c r="V159" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-nassr-al-ettifaq-fc/lM4gHYXb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45283.66666666666</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-fateh/dn81FC2B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45283.79166666666</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>3</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-raed/jo1ADjXN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45284.79166666666</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>3</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-wehda-al-riyadh/S6GpJf3n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45286.79166666666</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>5</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>09/12/2023 07:03</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>09/12/2023 07:03</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>09/12/2023 07:03</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ittihad-al-nassr/6Xyv6u49/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45288.66666666666</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>22/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>22/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>22/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ettifaq-fc-al-hazem-rass/CIKYDKr4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45288.66666666666</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-riyadh-damac/tb8oBISM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45289.66666666666</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>25/12/2023 09:11</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>25/12/2023 09:11</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>25/12/2023 09:11</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:45</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-feiha-al-hilal/nHnt8Ufo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45289.66666666666</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>4</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>3</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-raed-abha/bFGUE0Tc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45289.79166666666</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>22/12/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>22/12/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>22/12/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-ahli-sc-al-khaleej/fsAwDvbA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45290.66666666666</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Al Akhdoud</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-fateh-al-akhdoud/p80ECAnU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45290.79166666666</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-shabab-al-wehda/4hHQFtEi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>saudi-arabia</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>saudi-professional-league</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45290.79166666666</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>4</v>
+      </c>
+      <c r="J171" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>26/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>5</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>26/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>26/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/saudi-arabia/saudi-professional-league/al-taawon-al-nassr/YX8sCbDG/</t>
         </is>
       </c>
     </row>
